--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847"/>
+    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>IRR</t>
   </si>
   <si>
-    <t>Approx OPEX per year per subscriber</t>
-  </si>
-  <si>
     <t>PS+ONT+DSLAM</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>FTTB_Hybridpon_120</t>
+  </si>
+  <si>
+    <t>Approx OPEX per year</t>
   </si>
 </sst>
 </file>
@@ -1257,11 +1257,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="188035584"/>
-        <c:axId val="223728704"/>
+        <c:axId val="63445504"/>
+        <c:axId val="70636608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188035584"/>
+        <c:axId val="63445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223728704"/>
+        <c:crossAx val="70636608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223728704"/>
+        <c:axId val="70636608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188035584"/>
+        <c:crossAx val="63445504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,6 +1379,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1397,7 +1398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Approx OPEX per year per subscriber</c:v>
+                  <c:v>Approx OPEX per year</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1514,11 +1515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188036608"/>
-        <c:axId val="223730432"/>
+        <c:axId val="63714816"/>
+        <c:axId val="63537152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188036608"/>
+        <c:axId val="63714816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223730432"/>
+        <c:crossAx val="63537152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1535,7 +1536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223730432"/>
+        <c:axId val="63537152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,13 +1559,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188036608"/>
+        <c:crossAx val="63714816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,11 +2093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="220953088"/>
-        <c:axId val="228098624"/>
+        <c:axId val="64286720"/>
+        <c:axId val="70638912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220953088"/>
+        <c:axId val="64286720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228098624"/>
+        <c:crossAx val="70638912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2113,7 +2115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228098624"/>
+        <c:axId val="70638912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220953088"/>
+        <c:crossAx val="64286720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -2568,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -2592,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>5</v>
@@ -2631,7 +2633,7 @@
         <v>19</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>20</v>
@@ -2679,7 +2681,7 @@
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
         <v>342</v>
@@ -2698,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="7">
         <f>0.64</f>
@@ -2762,7 +2764,7 @@
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>342</v>
@@ -2844,7 +2846,7 @@
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7">
         <v>342</v>
@@ -2922,7 +2924,7 @@
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7">
         <v>2049</v>
@@ -3004,7 +3006,7 @@
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7">
         <v>2049</v>
@@ -3086,7 +3088,7 @@
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7">
         <v>342</v>
@@ -3104,7 +3106,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>1.3</v>
@@ -3166,7 +3168,7 @@
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7">
         <v>342</v>
@@ -3246,7 +3248,7 @@
     </row>
     <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7">
         <v>342</v>
@@ -3325,7 +3327,7 @@
     </row>
     <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="7">
         <v>342</v>
@@ -3344,7 +3346,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>0.54</v>
@@ -3406,7 +3408,7 @@
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7">
         <v>342</v>
@@ -3486,7 +3488,7 @@
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7">
         <v>2049</v>
@@ -3567,7 +3569,7 @@
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <v>342</v>
@@ -3585,7 +3587,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0.54</v>
@@ -3647,7 +3649,7 @@
     </row>
     <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <v>342</v>
@@ -3734,7 +3736,7 @@
     </row>
     <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -3743,17 +3745,17 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S44">
         <f>0.02/1000</f>
@@ -3768,23 +3770,23 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="Y44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
         <v>58</v>
       </c>
-      <c r="T45" t="s">
+      <c r="W45" t="s">
         <v>59</v>
-      </c>
-      <c r="W45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S46">
         <v>1.1200000000000001</v>
@@ -3796,7 +3798,7 @@
         <v>0.73</v>
       </c>
       <c r="Y46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3830,13 +3832,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -3851,13 +3853,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -3872,13 +3874,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5275,13 +5277,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -5296,13 +5298,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -5317,13 +5319,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6723,13 +6725,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -6744,13 +6746,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -6765,13 +6767,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8168,13 +8170,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -8189,13 +8191,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -8210,13 +8212,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -9613,13 +9615,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -9634,13 +9636,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -9655,13 +9657,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -11058,13 +11060,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -11079,13 +11081,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -11100,13 +11102,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -12503,13 +12505,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -12524,13 +12526,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -12545,13 +12547,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -13948,13 +13950,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -13969,13 +13971,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -13990,13 +13992,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -15404,43 +15406,43 @@
         <v>23</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15505,7 +15507,7 @@
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -15556,7 +15558,7 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -15605,7 +15607,7 @@
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -15654,7 +15656,7 @@
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -15701,7 +15703,7 @@
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -15748,7 +15750,7 @@
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -15797,7 +15799,7 @@
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -15845,7 +15847,7 @@
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -15893,7 +15895,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -15944,7 +15946,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -15993,7 +15995,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -16040,7 +16042,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -16089,7 +16091,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -16161,7 +16163,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16176,7 +16178,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16189,7 +16191,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="12">
         <f>0.1*(CAPEX!U3+CAPEX!V3)+0.01*(CAPEX!S3+CAPEX!T3)</f>
@@ -16198,7 +16200,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="12">
         <f>0.1*(CAPEX!U4+CAPEX!V4)+0.01*(CAPEX!S4+CAPEX!T4)</f>
@@ -16207,7 +16209,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12">
         <f>0.1*(CAPEX!U5+CAPEX!V5)+0.01*(CAPEX!S5+CAPEX!T5)</f>
@@ -16216,7 +16218,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12">
         <f>0.1*(CAPEX!U6+CAPEX!V6)+0.01*(CAPEX!S6+CAPEX!T6)</f>
@@ -16225,7 +16227,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12">
         <f>0.1*(CAPEX!U7+CAPEX!V7)+0.01*(CAPEX!S7+CAPEX!T7)</f>
@@ -16234,7 +16236,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12">
         <f>0.1*(CAPEX!U8+CAPEX!V8)+0.01*(CAPEX!S8+CAPEX!T8)</f>
@@ -16243,7 +16245,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="12">
         <f>0.1*(CAPEX!U9+CAPEX!V9)+0.01*(CAPEX!S9+CAPEX!T9)</f>
@@ -16252,7 +16254,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="12">
         <f>0.1*(CAPEX!U10+CAPEX!V10)+0.01*(CAPEX!S10+CAPEX!T10)</f>
@@ -16261,7 +16263,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="12">
         <f>0.1*(CAPEX!U11+CAPEX!V11)+0.01*(CAPEX!S11+CAPEX!T11)</f>
@@ -16270,7 +16272,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="12">
         <f>0.1*(CAPEX!U12+CAPEX!V12)+0.01*(CAPEX!S12+CAPEX!T12)</f>
@@ -16279,7 +16281,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="12">
         <f>0.1*(CAPEX!U13+CAPEX!V13)+0.01*(CAPEX!S13+CAPEX!T13)</f>
@@ -16288,7 +16290,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="12">
         <f>0.1*(CAPEX!U14+CAPEX!V14)+0.01*(CAPEX!S14+CAPEX!T14)</f>
@@ -16297,7 +16299,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="12">
         <f>0.1*(CAPEX!U15+CAPEX!V15)+0.01*(CAPEX!S15+CAPEX!T15)</f>
@@ -16314,7 +16316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:H18"/>
     </sheetView>
   </sheetViews>
@@ -16362,13 +16364,13 @@
         <v>29</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>30</v>
@@ -16383,13 +16385,13 @@
         <v>33</v>
       </c>
       <c r="Y1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>34</v>
@@ -16404,13 +16406,13 @@
         <v>37</v>
       </c>
       <c r="AF1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -16430,7 +16432,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="M2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N2" s="7">
         <v>2018</v>
@@ -16532,7 +16534,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="M3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="7">
         <v>2019</v>
@@ -16634,16 +16636,16 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7">
         <v>2020</v>
@@ -16755,7 +16757,7 @@
         <v>3.6</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7">
         <v>2021</v>
@@ -16857,7 +16859,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="10">
         <f>30*12/50</f>
@@ -16867,7 +16869,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" s="7">
         <v>2022</v>
@@ -16969,7 +16971,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="H7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="10">
         <f>40*12/50</f>
@@ -16979,7 +16981,7 @@
         <v>24</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" s="7">
         <v>2023</v>
@@ -17081,7 +17083,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="H8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="10">
         <f>40*12/50</f>
@@ -17091,7 +17093,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="7">
         <v>2024</v>
@@ -17193,7 +17195,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="H9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="10">
         <v>12</v>
@@ -17202,7 +17204,7 @@
         <v>36</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N9" s="7">
         <v>2025</v>
@@ -17304,7 +17306,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="H10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="10">
         <v>12</v>
@@ -17313,7 +17315,7 @@
         <v>36</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
         <v>2026</v>
@@ -17415,7 +17417,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="H11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="10">
         <v>12</v>
@@ -17424,7 +17426,7 @@
         <v>36</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7">
         <v>2027</v>
@@ -17526,7 +17528,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="10">
         <f>50*12/50</f>
@@ -17536,7 +17538,7 @@
         <v>36</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="7">
         <v>2028</v>
@@ -17638,7 +17640,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="H13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="10">
         <v>12</v>
@@ -17647,7 +17649,7 @@
         <v>36</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
         <v>2029</v>
@@ -17749,7 +17751,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="H14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="10">
         <v>7.2</v>
@@ -17758,7 +17760,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N14" s="7">
         <v>2030</v>
@@ -17860,7 +17862,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="H15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="10">
         <v>9.6</v>
@@ -17869,7 +17871,7 @@
         <v>24</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N15" s="7">
         <v>2031</v>
@@ -17971,7 +17973,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="H16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="10">
         <v>12</v>
@@ -17980,7 +17982,7 @@
         <v>36</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7">
         <v>2032</v>
@@ -18082,7 +18084,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="H17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="10">
         <v>12</v>
@@ -18091,7 +18093,7 @@
         <v>36</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N17" s="7">
         <v>2033</v>
@@ -18193,7 +18195,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="H18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="10">
         <v>12</v>
@@ -18202,7 +18204,7 @@
         <v>36</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7">
         <v>2034</v>
@@ -18304,7 +18306,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="M19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N19" s="7">
         <v>2035</v>
@@ -18406,7 +18408,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="M20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" s="7">
         <v>2036</v>
@@ -18508,7 +18510,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="M21" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N21" s="7">
         <v>2037</v>
@@ -18610,7 +18612,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="M22" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N22" s="7">
         <v>2038</v>
@@ -18709,10 +18711,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -18729,13 +18731,13 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -18767,10 +18769,10 @@
         <v>80</v>
       </c>
       <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
         <v>80</v>
-      </c>
-      <c r="K29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -19375,7 +19377,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -19392,13 +19394,13 @@
         <v>27</v>
       </c>
       <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s">
         <v>42</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>43</v>
-      </c>
-      <c r="G53" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -20043,13 +20045,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -20064,13 +20066,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -20085,13 +20087,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -21489,13 +21491,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -21510,13 +21512,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -21531,13 +21533,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -22934,13 +22936,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -22955,13 +22957,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -22976,13 +22978,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -24379,13 +24381,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -24400,13 +24402,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -24421,13 +24423,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -25824,13 +25826,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -25845,13 +25847,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -25866,13 +25868,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -27269,13 +27271,13 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -27290,13 +27292,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
@@ -27311,13 +27313,13 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">

--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="708" windowWidth="13680" windowHeight="11196" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -759,14 +764,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -793,7 +801,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -872,47 +879,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78872.086550701642</c:v>
+                  <c:v>78872.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78872.086550701642</c:v>
+                  <c:v>78872.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78872.086550701642</c:v>
+                  <c:v>78872.09</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114876.35990534152</c:v>
+                  <c:v>114876.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115530.46906962365</c:v>
+                  <c:v>115530.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115530.46906962365</c:v>
+                  <c:v>115530.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114876.35990534152</c:v>
+                  <c:v>114876.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115530.46906962365</c:v>
+                  <c:v>115530.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDE6-4631-9886-2AD8794ADFDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -983,47 +995,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.840228189119191</c:v>
+                  <c:v>18.840229999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.814589886676153</c:v>
+                  <c:v>12.814590000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.612123172178348</c:v>
+                  <c:v>14.612120000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.612123172178348</c:v>
+                  <c:v>14.612120000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.814589886676153</c:v>
+                  <c:v>12.814590000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.840228189119191</c:v>
+                  <c:v>18.840229999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.814589886676153</c:v>
+                  <c:v>12.814590000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.612123172178348</c:v>
+                  <c:v>14.612120000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.594228370284263</c:v>
+                  <c:v>12.59423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.211670303203721</c:v>
+                  <c:v>12.21167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.331648594515361</c:v>
+                  <c:v>25.08727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.594228370284263</c:v>
+                  <c:v>12.59423</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5120485945153614</c:v>
+                  <c:v>12.21167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDE6-4631-9886-2AD8794ADFDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1094,47 +1111,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1670.4</c:v>
+                  <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1463.1</c:v>
+                  <c:v>6405.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5754.86</c:v>
+                  <c:v>5299.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19410.46</c:v>
+                  <c:v>5866.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8778.6</c:v>
+                  <c:v>12618.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6340.1</c:v>
+                  <c:v>6426.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3511.44</c:v>
+                  <c:v>12818.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5852.4</c:v>
+                  <c:v>11216.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1001.1600000000001</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1365.5600000000002</c:v>
+                  <c:v>7280</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15801.480000000001</c:v>
+                  <c:v>14160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2633.5800000000004</c:v>
+                  <c:v>27600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2633.5800000000004</c:v>
+                  <c:v>14160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDE6-4631-9886-2AD8794ADFDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1205,47 +1227,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4906.8</c:v>
+                  <c:v>158553.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11607.26</c:v>
+                  <c:v>63750.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10534.320000000002</c:v>
+                  <c:v>60860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97442.459999999992</c:v>
+                  <c:v>133338.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69643.56</c:v>
+                  <c:v>129280.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12582.66</c:v>
+                  <c:v>195086.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13362.98</c:v>
+                  <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10534.320000000002</c:v>
+                  <c:v>63060</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4597.92</c:v>
+                  <c:v>96145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16289.18</c:v>
+                  <c:v>55966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98905.56</c:v>
+                  <c:v>168466.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12094.960000000001</c:v>
+                  <c:v>105356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16484.260000000002</c:v>
+                  <c:v>66966.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDE6-4631-9886-2AD8794ADFDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1257,11 +1284,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="63445504"/>
-        <c:axId val="70636608"/>
+        <c:axId val="168358400"/>
+        <c:axId val="193047936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63445504"/>
+        <c:axId val="168358400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,13 +1310,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70636608"/>
+        <c:crossAx val="193047936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70636608"/>
+        <c:axId val="193047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,21 +1347,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63445504"/>
+        <c:crossAx val="168358400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1350,9 +1375,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1379,7 +1404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1461,50 +1485,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
+                  <c:v>51114.587309311035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2121.2871443632298</c:v>
+                  <c:v>30429.282118970365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2770.5428879802053</c:v>
+                  <c:v>66109.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2417.7849867387386</c:v>
+                  <c:v>66648.422052537615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12474.158986738737</c:v>
+                  <c:v>8108.705667292159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9305.722887980206</c:v>
+                  <c:v>8798.3519740095981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3355.8431443632298</c:v>
+                  <c:v>69659.850521829372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3150.9488879802052</c:v>
+                  <c:v>70126.863400003014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2427.5389867387385</c:v>
+                  <c:v>70620.289169209602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1708.7975413371182</c:v>
+                  <c:v>51210.227713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2920.9008073992691</c:v>
+                  <c:v>67227.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12626.112007182181</c:v>
+                  <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2621.7435413371186</c:v>
+                  <c:v>70921.654760442281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3067.1838111821821</c:v>
+                  <c:v>72488.476920599642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91EA-4BE3-8D39-C1A7A45459C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1515,20 +1544,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63714816"/>
-        <c:axId val="63537152"/>
+        <c:axId val="168358912"/>
+        <c:axId val="193050240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63714816"/>
+        <c:axId val="168358912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63537152"/>
+        <c:crossAx val="193050240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1536,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63537152"/>
+        <c:axId val="193050240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1589,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63714816"/>
+        <c:crossAx val="168358912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,9 +1613,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1763,6 +1792,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BE7-40B5-9E01-190C466D1BD6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1923,6 +1957,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BE7-40B5-9E01-190C466D1BD6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2083,6 +2122,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BE7-40B5-9E01-190C466D1BD6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2093,11 +2137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="64286720"/>
-        <c:axId val="70638912"/>
+        <c:axId val="171459072"/>
+        <c:axId val="193051968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64286720"/>
+        <c:axId val="171459072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70638912"/>
+        <c:crossAx val="193051968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2115,7 +2159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70638912"/>
+        <c:axId val="193051968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64286720"/>
+        <c:crossAx val="171459072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,7 +2208,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2199,7 +2249,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2234,7 +2290,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2295,7 +2357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2328,9 +2390,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2363,6 +2442,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2541,31 +2637,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="10" width="19.109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="18" width="11.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="18" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2675,11 +2771,13 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13">
-        <v>10000</v>
-      </c>
-      <c r="X2" s="13"/>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+      <c r="X2" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2738,31 +2836,27 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <f>M3*S46+N3*T46+O3*W46</f>
-        <v>146337.87420813384</v>
+        <v>146337.9</v>
       </c>
       <c r="T3" s="11">
-        <f t="shared" ref="T3:T15" si="0">(P3+Q3+R3)*$Q$27</f>
-        <v>18.840228189119191</v>
+        <v>18.840229999999998</v>
       </c>
       <c r="U3" s="11">
-        <f t="shared" ref="U3:U15" si="1">(B3+C3)*H3</f>
-        <v>1670.4</v>
+        <v>3056.8888888888887</v>
       </c>
       <c r="V3" s="11">
-        <f t="shared" ref="V3:V15" si="2">(B3+C3)*I3+(B3+C3)*J3</f>
-        <v>4906.8</v>
+        <v>158553.60000000001</v>
       </c>
       <c r="W3" s="11">
         <f>SUM(U3,V3)</f>
-        <v>6577.2000000000007</v>
+        <v>161610.48888888888</v>
       </c>
       <c r="X3" s="12">
-        <f t="shared" ref="X3:X14" si="3">S3+T3+U3+V3</f>
-        <v>152933.91443632296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X3:X14" si="0">S3+T3+U3+V3</f>
+        <v>307967.22911888885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2820,31 +2914,27 @@
         <v>384090.36767452297</v>
       </c>
       <c r="S4" s="11">
-        <f t="shared" ref="S4:S15" si="4">M4*$S$46+N4*$T$46+O4*$W$46</f>
-        <v>146337.87420813384</v>
+        <v>146337.9</v>
       </c>
       <c r="T4" s="11">
+        <v>12.814590000000001</v>
+      </c>
+      <c r="U4" s="11">
+        <v>6405.333333333333</v>
+      </c>
+      <c r="V4" s="11">
+        <v>63750.8</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" ref="W4:W15" si="1">SUM(U4,V4)</f>
+        <v>70156.133333333331</v>
+      </c>
+      <c r="X4" s="12">
         <f t="shared" si="0"/>
-        <v>12.814589886676153</v>
-      </c>
-      <c r="U4" s="11">
-        <f t="shared" si="1"/>
-        <v>1463.1</v>
-      </c>
-      <c r="V4" s="11">
-        <f t="shared" si="2"/>
-        <v>11607.26</v>
-      </c>
-      <c r="W4" s="11">
-        <f t="shared" ref="W4:W15" si="5">SUM(U4,V4)</f>
-        <v>13070.36</v>
-      </c>
-      <c r="X4" s="12">
-        <f t="shared" si="3"/>
-        <v>159421.04879802052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216506.84792333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2898,31 +2988,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="S5" s="11">
-        <f t="shared" si="4"/>
-        <v>78872.086550701642</v>
+        <v>78872.09</v>
       </c>
       <c r="T5" s="11">
+        <v>14.612120000000001</v>
+      </c>
+      <c r="U5" s="11">
+        <v>5299.166666666667</v>
+      </c>
+      <c r="V5" s="11">
+        <v>60860</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="1"/>
+        <v>66159.166666666672</v>
+      </c>
+      <c r="X5" s="12">
         <f t="shared" si="0"/>
-        <v>14.612123172178348</v>
-      </c>
-      <c r="U5" s="11">
-        <f t="shared" si="1"/>
-        <v>5754.86</v>
-      </c>
-      <c r="V5" s="11">
-        <f t="shared" si="2"/>
-        <v>10534.320000000002</v>
-      </c>
-      <c r="W5" s="11">
-        <f t="shared" si="5"/>
-        <v>16289.18</v>
-      </c>
-      <c r="X5" s="12">
-        <f t="shared" si="3"/>
-        <v>95175.878673873827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145045.86878666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -2980,31 +3066,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="S6" s="11">
-        <f t="shared" si="4"/>
-        <v>78872.086550701642</v>
+        <v>78872.09</v>
       </c>
       <c r="T6" s="11">
+        <v>14.612120000000001</v>
+      </c>
+      <c r="U6" s="11">
+        <v>5866.833333333333</v>
+      </c>
+      <c r="V6" s="11">
+        <v>133338.59999999998</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="1"/>
+        <v>139205.43333333332</v>
+      </c>
+      <c r="X6" s="12">
         <f t="shared" si="0"/>
-        <v>14.612123172178348</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="1"/>
-        <v>19410.46</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="2"/>
-        <v>97442.459999999992</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="5"/>
-        <v>116852.91999999998</v>
-      </c>
-      <c r="X6" s="12">
-        <f t="shared" si="3"/>
-        <v>195739.6186738738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218092.13545333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3062,31 +3144,27 @@
         <v>384090.36767452297</v>
       </c>
       <c r="S7" s="11">
-        <f t="shared" si="4"/>
-        <v>146337.87420813384</v>
+        <v>146337.9</v>
       </c>
       <c r="T7" s="11">
+        <v>12.814590000000001</v>
+      </c>
+      <c r="U7" s="11">
+        <v>12618.666666666666</v>
+      </c>
+      <c r="V7" s="11">
+        <v>129280.20000000001</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="1"/>
+        <v>141898.86666666667</v>
+      </c>
+      <c r="X7" s="12">
         <f t="shared" si="0"/>
-        <v>12.814589886676153</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" si="1"/>
-        <v>8778.6</v>
-      </c>
-      <c r="V7" s="11">
-        <f t="shared" si="2"/>
-        <v>69643.56</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" si="5"/>
-        <v>78422.16</v>
-      </c>
-      <c r="X7" s="12">
-        <f t="shared" si="3"/>
-        <v>224772.84879802051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>288249.58125666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3142,31 +3220,27 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <f t="shared" si="4"/>
-        <v>146337.87420813384</v>
+        <v>146337.9</v>
       </c>
       <c r="T8" s="11">
+        <v>18.840229999999998</v>
+      </c>
+      <c r="U8" s="11">
+        <v>6426.666666666667</v>
+      </c>
+      <c r="V8" s="11">
+        <v>195086.4</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="1"/>
+        <v>201513.06666666665</v>
+      </c>
+      <c r="X8" s="12">
         <f t="shared" si="0"/>
-        <v>18.840228189119191</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" si="1"/>
-        <v>6340.1</v>
-      </c>
-      <c r="V8" s="11">
-        <f t="shared" si="2"/>
-        <v>12582.66</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" si="5"/>
-        <v>18922.760000000002</v>
-      </c>
-      <c r="X8" s="12">
-        <f t="shared" si="3"/>
-        <v>165279.47443632298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347869.80689666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3222,31 +3296,27 @@
         <v>384090.36767452297</v>
       </c>
       <c r="S9" s="11">
-        <f t="shared" si="4"/>
-        <v>146337.87420813384</v>
+        <v>146337.9</v>
       </c>
       <c r="T9" s="11">
+        <v>12.814590000000001</v>
+      </c>
+      <c r="U9" s="11">
+        <v>12818.666666666666</v>
+      </c>
+      <c r="V9" s="11">
+        <v>61989.9</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="1"/>
+        <v>74808.566666666666</v>
+      </c>
+      <c r="X9" s="12">
         <f t="shared" si="0"/>
-        <v>12.814589886676153</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="1"/>
-        <v>3511.44</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="2"/>
-        <v>13362.98</v>
-      </c>
-      <c r="W9" s="11">
-        <f t="shared" si="5"/>
-        <v>16874.419999999998</v>
-      </c>
-      <c r="X9" s="12">
-        <f t="shared" si="3"/>
-        <v>163225.10879802052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221159.28125666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3301,31 +3371,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="S10" s="11">
-        <f t="shared" si="4"/>
-        <v>78872.086550701642</v>
+        <v>78872.09</v>
       </c>
       <c r="T10" s="11">
+        <v>14.612120000000001</v>
+      </c>
+      <c r="U10" s="11">
+        <v>11216.333333333334</v>
+      </c>
+      <c r="V10" s="11">
+        <v>63060</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="1"/>
+        <v>74276.333333333328</v>
+      </c>
+      <c r="X10" s="12">
         <f t="shared" si="0"/>
-        <v>14.612123172178348</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="1"/>
-        <v>5852.4</v>
-      </c>
-      <c r="V10" s="11">
-        <f t="shared" si="2"/>
-        <v>10534.320000000002</v>
-      </c>
-      <c r="W10" s="11">
-        <f t="shared" si="5"/>
-        <v>16386.72</v>
-      </c>
-      <c r="X10" s="12">
-        <f t="shared" si="3"/>
-        <v>95273.418673873821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>153163.03545333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3382,31 +3448,27 @@
         <v>387592.626526276</v>
       </c>
       <c r="S11" s="11">
-        <f t="shared" si="4"/>
-        <v>114876.35990534152</v>
+        <v>114876.4</v>
       </c>
       <c r="T11" s="11">
+        <v>12.59423</v>
+      </c>
+      <c r="U11" s="11">
+        <v>4000</v>
+      </c>
+      <c r="V11" s="11">
+        <v>96145</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="1"/>
+        <v>100145</v>
+      </c>
+      <c r="X11" s="12">
         <f t="shared" si="0"/>
-        <v>12.594228370284263</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="1"/>
-        <v>1001.1600000000001</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" si="2"/>
-        <v>4597.92</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="5"/>
-        <v>5599.08</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="3"/>
-        <v>120488.03413371182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>215033.99423000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3462,31 +3524,27 @@
         <v>368464.72317224898</v>
       </c>
       <c r="S12" s="11">
-        <f t="shared" si="4"/>
-        <v>115530.46906962365</v>
+        <v>115530.5</v>
       </c>
       <c r="T12" s="11">
+        <v>12.21167</v>
+      </c>
+      <c r="U12" s="11">
+        <v>7280</v>
+      </c>
+      <c r="V12" s="11">
+        <v>55966.5</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="1"/>
+        <v>63246.5</v>
+      </c>
+      <c r="X12" s="12">
         <f t="shared" si="0"/>
-        <v>12.211670303203721</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="1"/>
-        <v>1365.5600000000002</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="2"/>
-        <v>16289.18</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="5"/>
-        <v>17654.740000000002</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" si="3"/>
-        <v>133197.42073992686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178789.21166999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3543,31 +3601,27 @@
         <v>274463.63773783098</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" si="4"/>
-        <v>115530.46906962365</v>
+        <v>115530.5</v>
       </c>
       <c r="T13" s="11">
+        <v>25.08727</v>
+      </c>
+      <c r="U13" s="11">
+        <v>14160</v>
+      </c>
+      <c r="V13" s="11">
+        <v>168466.5</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="1"/>
+        <v>182626.5</v>
+      </c>
+      <c r="X13" s="12">
         <f t="shared" si="0"/>
-        <v>10.331648594515361</v>
-      </c>
-      <c r="U13" s="11">
-        <f t="shared" si="1"/>
-        <v>15801.480000000001</v>
-      </c>
-      <c r="V13" s="11">
-        <f t="shared" si="2"/>
-        <v>98905.56</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="5"/>
-        <v>114707.04</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="3"/>
-        <v>230247.84071821815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298182.08727000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3623,31 +3677,27 @@
         <v>387592.626526276</v>
       </c>
       <c r="S14" s="11">
-        <f t="shared" si="4"/>
-        <v>114876.35990534152</v>
+        <v>114876.4</v>
       </c>
       <c r="T14" s="11">
+        <v>12.59423</v>
+      </c>
+      <c r="U14" s="11">
+        <v>27600</v>
+      </c>
+      <c r="V14" s="11">
+        <v>105356</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="1"/>
+        <v>132956</v>
+      </c>
+      <c r="X14" s="12">
         <f t="shared" si="0"/>
-        <v>12.594228370284263</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="1"/>
-        <v>2633.5800000000004</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="2"/>
-        <v>12094.960000000001</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="5"/>
-        <v>14728.54</v>
-      </c>
-      <c r="X14" s="12">
-        <f t="shared" si="3"/>
-        <v>129617.49413371182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>247844.99423000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3704,37 +3754,33 @@
         <v>233483.63773783101</v>
       </c>
       <c r="S15" s="11">
-        <f t="shared" si="4"/>
-        <v>115530.46906962365</v>
+        <v>115530.5</v>
       </c>
       <c r="T15" s="11">
-        <f t="shared" si="0"/>
-        <v>9.5120485945153614</v>
+        <v>12.21167</v>
       </c>
       <c r="U15" s="11">
+        <v>14160</v>
+      </c>
+      <c r="V15" s="11">
+        <v>66966.5</v>
+      </c>
+      <c r="W15" s="11">
         <f t="shared" si="1"/>
-        <v>2633.5800000000004</v>
-      </c>
-      <c r="V15" s="11">
-        <f t="shared" si="2"/>
-        <v>16484.260000000002</v>
-      </c>
-      <c r="W15" s="11">
-        <f t="shared" si="5"/>
-        <v>19117.840000000004</v>
+        <v>81126.5</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" ref="X15" si="6">SUM(S15:V15)</f>
-        <v>134657.82111821815</v>
-      </c>
-    </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
+        <v>196669.21166999999</v>
+      </c>
+    </row>
+    <row r="27" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3748,12 +3794,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.3">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3773,7 +3819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.3">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3784,7 +3830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3816,9 +3862,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3883,7 +3929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -3948,7 +3994,7 @@
         <v>-1373.815837057527</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -4013,7 +4059,7 @@
         <v>-321.65076096138819</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4078,7 +4124,7 @@
         <v>1353.871209043366</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -4143,7 +4189,7 @@
         <v>4205.9986197914886</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -4208,7 +4254,7 @@
         <v>9052.7861231763327</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -4273,7 +4319,7 @@
         <v>17327.544791986678</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -4338,7 +4384,7 @@
         <v>30945.693748588084</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -4403,7 +4449,7 @@
         <v>51600.195925279462</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -4468,7 +4514,7 @@
         <v>77844.306419449145</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -4533,7 +4579,7 @@
         <v>100829.28687112352</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -4598,7 +4644,7 @@
         <v>108068.62611646316</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -4663,7 +4709,7 @@
         <v>101444.91585048511</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -4728,7 +4774,7 @@
         <v>92345.005007169064</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -4793,7 +4839,7 @@
         <v>83974.336359869762</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -4858,7 +4904,7 @@
         <v>76346.625731803113</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -4923,7 +4969,7 @@
         <v>69411.768801733138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -4988,7 +5034,7 @@
         <v>63104.21955120506</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -5053,7 +5099,7 @@
         <v>57369.846455304127</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -5118,7 +5164,7 @@
         <v>52154.405868458292</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -5183,7 +5229,7 @@
         <v>47413.096244052984</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -5261,9 +5307,9 @@
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5328,7 +5374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5393,7 +5439,7 @@
         <v>-1237.5328644674091</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -5458,7 +5504,7 @@
         <v>-197.75714951582648</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5523,7 +5569,7 @@
         <v>1466.5017649029676</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -5588,7 +5634,7 @@
         <v>4308.3900342093084</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -5653,7 +5699,7 @@
         <v>9145.8692271925338</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -5718,7 +5764,7 @@
         <v>17412.165795637768</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -5783,7 +5829,7 @@
         <v>31022.621933725437</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -5848,7 +5894,7 @@
         <v>51670.13063904069</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -5913,7 +5959,7 @@
         <v>77907.883431959359</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -5978,7 +6024,7 @@
         <v>100887.08415522371</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -6043,7 +6089,7 @@
         <v>108121.16910200879</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -6108,7 +6154,7 @@
         <v>101492.68220098114</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -6173,7 +6219,7 @@
         <v>92388.428962165461</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -6238,7 +6284,7 @@
         <v>84013.812682593751</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -6303,7 +6349,7 @@
         <v>76382.513297915822</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -6368,7 +6414,7 @@
         <v>69444.393861835604</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -6433,7 +6479,7 @@
         <v>63133.878696752763</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -6498,7 +6544,7 @@
         <v>57396.809314892947</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -6563,7 +6609,7 @@
         <v>52178.917558993584</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -6628,7 +6674,7 @@
         <v>47435.379599085063</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -6706,12 +6752,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6776,7 +6822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6841,7 +6887,7 @@
         <v>-1298.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6906,7 +6952,7 @@
         <v>-252.84392037416305</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6971,7 +7017,7 @@
         <v>1416.4228823044798</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7036,7 +7082,7 @@
         <v>4262.8637773015917</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7101,7 +7147,7 @@
         <v>9104.4817209127905</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7166,7 +7212,7 @@
         <v>17374.540789928909</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7231,7 +7277,7 @@
         <v>30988.417383081021</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7296,7 +7342,7 @@
         <v>51639.035593000321</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7361,7 +7407,7 @@
         <v>77879.615208286297</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7426,7 +7472,7 @@
         <v>100861.38577006638</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7491,7 +7537,7 @@
         <v>108097.80693368394</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7556,7 +7602,7 @@
         <v>101471.44386614037</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -7621,7 +7667,7 @@
         <v>92369.121385037477</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -7686,7 +7732,7 @@
         <v>83996.260339750137</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -7751,7 +7797,7 @@
         <v>76366.556622603443</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -7816,7 +7862,7 @@
         <v>69429.88779336981</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -7881,7 +7927,7 @@
         <v>63120.691361783851</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -7946,7 +7992,7 @@
         <v>57384.820828557575</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8011,7 +8057,7 @@
         <v>52168.018935052336</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8076,7 +8122,7 @@
         <v>47425.471759138476</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8154,9 +8200,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -8221,7 +8267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8286,7 +8332,7 @@
         <v>-1072.7975413371182</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8351,7 +8397,7 @@
         <v>-462.5432193973802</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8416,7 +8462,7 @@
         <v>487.9359162503157</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8481,7 +8527,7 @@
         <v>2077.2370087624954</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8546,7 +8592,7 @@
         <v>4770.1676515694826</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8611,7 +8657,7 @@
         <v>9348.0962295563986</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -8676,7 +8722,7 @@
         <v>16866.482417857962</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -8741,7 +8787,7 @@
         <v>28261.05567537887</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -8806,7 +8852,7 @@
         <v>42734.689615525116</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -8871,7 +8917,7 @@
         <v>55408.863800220242</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -8936,7 +8982,7 @@
         <v>59408.21219880171</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -9001,7 +9047,7 @@
         <v>55769.74896186671</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -9066,7 +9112,7 @@
         <v>50770.125468065649</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -9131,7 +9177,7 @@
         <v>46166.477823116569</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -9196,7 +9242,7 @@
         <v>41973.317263804332</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -9261,7 +9307,7 @@
         <v>38161.008394423945</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -9326,7 +9372,7 @@
         <v>34693.392742890363</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -9391,7 +9437,7 @@
         <v>31540.872429698233</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -9456,7 +9502,7 @@
         <v>28673.520390634752</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -9521,7 +9567,7 @@
         <v>26066.836718758859</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -9599,9 +9645,9 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9666,7 +9712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -9731,7 +9777,7 @@
         <v>-2032.9008073992691</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -9796,7 +9842,7 @@
         <v>-1128.0916430902446</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9861,7 +9907,7 @@
         <v>251.8175145460585</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -9926,7 +9972,7 @@
         <v>2533.3577705490084</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -9991,7 +10037,7 @@
         <v>6358.5132112565598</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10056,7 +10102,7 @@
         <v>12835.126259756675</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -10121,7 +10167,7 @@
         <v>23449.093309573149</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -10186,7 +10232,7 @@
         <v>39515.176006102003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -10251,7 +10297,7 @@
         <v>59911.816386371538</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -10316,7 +10362,7 @@
         <v>77775.728398294057</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -10381,7 +10427,7 @@
         <v>83426.285578198047</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -10446,7 +10492,7 @@
         <v>78323.574606690105</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -10511,7 +10557,7 @@
         <v>71299.603601721174</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -10576,7 +10622,7 @@
         <v>64835.896513405729</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -10641,7 +10687,7 @@
         <v>58946.780063178769</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -10706,7 +10752,7 @@
         <v>53592.578202964956</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -10771,7 +10817,7 @@
         <v>48722.614878762637</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -10836,7 +10882,7 @@
         <v>44295.185562242019</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -10901,7 +10947,7 @@
         <v>40268.350511129102</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -10966,7 +11012,7 @@
         <v>36607.591373753719</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -11044,9 +11090,9 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -11111,7 +11157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -11176,7 +11222,7 @@
         <v>-11486.239659399269</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -11241,7 +11287,7 @@
         <v>-9514.7633267266083</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11306,7 +11352,7 @@
         <v>-7003.5038507431964</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -11371,7 +11417,7 @@
         <v>-3391.6150709235671</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -11436,7 +11482,7 @@
         <v>2145.864586162646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -11501,7 +11547,7 @@
         <v>11048.525212883327</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -11566,7 +11612,7 @@
         <v>25237.4941312214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -11631,7 +11677,7 @@
         <v>46410.923545855207</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -11696,7 +11742,7 @@
         <v>73126.786074518022</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -11761,7 +11807,7 @@
         <v>96540.632012095215</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -11826,7 +11872,7 @@
         <v>104169.84897189197</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -11891,7 +11937,7 @@
         <v>97900.572991784036</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -11956,7 +12002,7 @@
         <v>89122.875135622628</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -12021,7 +12067,7 @@
         <v>81045.127385736647</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -12086,7 +12132,7 @@
         <v>73683.708482591188</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -12151,7 +12197,7 @@
         <v>66990.93493881321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -12216,7 +12262,7 @@
         <v>60903.461494005125</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -12281,7 +12327,7 @@
         <v>55369.157312395095</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -12346,7 +12392,7 @@
         <v>50335.597556722809</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -12411,7 +12457,7 @@
         <v>45759.634142475268</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -12489,9 +12535,9 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -12556,7 +12602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -12621,7 +12667,7 @@
         <v>-1481.7435413371186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -12686,7 +12732,7 @@
         <v>-419.76685576101687</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -12751,7 +12797,7 @@
         <v>1264.6747592255217</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -12816,7 +12862,7 @@
         <v>4124.9109381389026</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -12881,7 +12927,7 @@
         <v>8979.0700489467108</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -12946,7 +12992,7 @@
         <v>17260.530179050653</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -13011,7 +13057,7 @@
         <v>30884.771373191699</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -13076,7 +13122,7 @@
         <v>51544.811947646391</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -13141,7 +13187,7 @@
         <v>77793.957348873635</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -13206,7 +13252,7 @@
         <v>100783.51498878215</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -13271,7 +13317,7 @@
         <v>108027.01531433463</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -13336,7 +13382,7 @@
         <v>101407.08784855009</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -13401,7 +13447,7 @@
         <v>92310.615914500857</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -13466,7 +13512,7 @@
         <v>83943.073548353204</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -13531,7 +13577,7 @@
         <v>76318.204994060783</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -13596,7 +13642,7 @@
         <v>69385.931767421935</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -13661,7 +13707,7 @@
         <v>63080.731338194877</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -13726,7 +13772,7 @@
         <v>57348.49353438578</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -13791,7 +13837,7 @@
         <v>52134.994122168886</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -13856,7 +13902,7 @@
         <v>47395.4492019717</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -13934,9 +13980,9 @@
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -14001,7 +14047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -14066,7 +14112,7 @@
         <v>-1927.2108073992695</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -14131,7 +14177,7 @@
         <v>-824.73709763569946</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14196,7 +14242,7 @@
         <v>896.51999388490117</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -14261,7 +14307,7 @@
         <v>3790.2247878292478</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -14326,7 +14372,7 @@
         <v>8674.8099123015691</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -14391,7 +14437,7 @@
         <v>16983.930054827797</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -14456,7 +14502,7 @@
         <v>30633.316714807286</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -14521,7 +14567,7 @@
         <v>51316.216803660558</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -14586,7 +14632,7 @@
         <v>77586.143581613782</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -14651,7 +14697,7 @@
         <v>100594.59338218228</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -14716,7 +14762,7 @@
         <v>107855.26839924385</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -14781,7 +14827,7 @@
         <v>101250.95428937666</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -14846,7 +14892,7 @@
         <v>92168.676315252291</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -14911,7 +14957,7 @@
         <v>83814.037549036337</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -14976,7 +15022,7 @@
         <v>76200.89954013635</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -15041,7 +15087,7 @@
         <v>69279.29044567245</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -15106,7 +15152,7 @@
         <v>62983.784682058984</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -15171,7 +15217,7 @@
         <v>57260.360210625877</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -15236,7 +15282,7 @@
         <v>52054.872918750792</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -15301,7 +15347,7 @@
         <v>47322.611744318885</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -15379,26 +15425,26 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -15445,7 +15491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -15454,58 +15500,58 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>152933.91443632296</v>
+        <v>307967.22911888885</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
-        <v>159421.04879802052</v>
+        <v>216506.84792333335</v>
       </c>
       <c r="E2">
         <f>CAPEX!$X5</f>
-        <v>95175.878673873827</v>
+        <v>145045.86878666666</v>
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>195739.6186738738</v>
+        <v>218092.13545333332</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
-        <v>224772.84879802051</v>
+        <v>288249.58125666669</v>
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>165279.47443632298</v>
+        <v>347869.80689666665</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
-        <v>163225.10879802052</v>
+        <v>221159.28125666664</v>
       </c>
       <c r="J2">
         <f>CAPEX!$X10</f>
-        <v>95273.418673873821</v>
+        <v>153163.03545333334</v>
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>120488.03413371182</v>
+        <v>215033.99423000001</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
-        <v>133197.42073992686</v>
+        <v>178789.21166999999</v>
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>230247.84071821815</v>
+        <v>298182.08727000002</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
-        <v>129617.49413371182</v>
+        <v>247844.99423000001</v>
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>134657.82111821815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196669.21166999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -15517,7 +15563,7 @@
       </c>
       <c r="D3">
         <f>D2-C2</f>
-        <v>6487.1343616975646</v>
+        <v>-91460.381195555499</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -15527,15 +15573,15 @@
       </c>
       <c r="G3">
         <f>G2-C2</f>
-        <v>71838.934361697553</v>
+        <v>-19717.647862222162</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>12345.560000000027</v>
+        <v>39902.577777777798</v>
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
-        <v>10291.194361697562</v>
+        <v>-86807.947862222209</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -15556,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -15577,14 +15623,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>65351.799999999988</v>
+        <v>71742.733333333337</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>3804.0599999999977</v>
+        <v>4652.4333333332906</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -15605,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -15623,7 +15669,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>100563.73999999998</v>
+        <v>73046.266666666663</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -15636,7 +15682,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>97.539999999993597</v>
+        <v>8117.1666666666861</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -15654,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -15701,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -15748,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -15769,14 +15815,14 @@
       </c>
       <c r="G8">
         <f>G2-H2</f>
-        <v>59493.374361697526</v>
+        <v>-59620.225639999961</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <f>I2-H2</f>
-        <v>-2054.3656383024645</v>
+        <v>-126710.52564000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -15797,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -15818,7 +15864,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>61547.739999999991</v>
+        <v>67090.300000000047</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15845,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -15863,7 +15909,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>100466.19999999998</v>
+        <v>64929.099999999977</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -15893,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -15929,22 +15975,22 @@
       </c>
       <c r="L11">
         <f>L2-K2</f>
-        <v>12709.386606215048</v>
+        <v>-36244.782560000021</v>
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>109759.80658450634</v>
+        <v>83148.093040000007</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>9129.4600000000064</v>
+        <v>32811</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>14169.78698450634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-18364.782560000021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -15983,17 +16029,17 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>97050.419978291291</v>
+        <v>119392.87560000003</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>1460.4003782912914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -16040,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -16079,17 +16125,17 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>100630.34658450633</v>
+        <v>50337.093040000007</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>O2-N2</f>
-        <v>5040.3269845063332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-51175.782560000021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -16128,7 +16174,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>95590.0196</v>
+        <v>101512.87560000003</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16137,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -16162,18 +16208,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -16181,129 +16227,117 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B3:B15)</f>
+        <v>51114.587309311035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <f>0.1*(CAPEX!U3+CAPEX!V3)+0.01*(CAPEX!S3+CAPEX!T3)</f>
-        <v>2121.2871443632298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30429.282118970365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <f>0.1*(CAPEX!U4+CAPEX!V4)+0.01*(CAPEX!S4+CAPEX!T4)</f>
-        <v>2770.5428879802053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66109.823692218881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <f>0.1*(CAPEX!U5+CAPEX!V5)+0.01*(CAPEX!S5+CAPEX!T5)</f>
-        <v>2417.7849867387386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66648.422052537615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <f>0.1*(CAPEX!U6+CAPEX!V6)+0.01*(CAPEX!S6+CAPEX!T6)</f>
-        <v>12474.158986738737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8108.705667292159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <f>0.1*(CAPEX!U7+CAPEX!V7)+0.01*(CAPEX!S7+CAPEX!T7)</f>
-        <v>9305.722887980206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8798.3519740095981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <f>0.1*(CAPEX!U8+CAPEX!V8)+0.01*(CAPEX!S8+CAPEX!T8)</f>
-        <v>3355.8431443632298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69659.850521829372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <f>0.1*(CAPEX!U9+CAPEX!V9)+0.01*(CAPEX!S9+CAPEX!T9)</f>
-        <v>3150.9488879802052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70126.863400003014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <f>0.1*(CAPEX!U10+CAPEX!V10)+0.01*(CAPEX!S10+CAPEX!T10)</f>
-        <v>2427.5389867387385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70620.289169209602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <f>0.1*(CAPEX!U11+CAPEX!V11)+0.01*(CAPEX!S11+CAPEX!T11)</f>
-        <v>1708.7975413371182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51210.227713520049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <f>0.1*(CAPEX!U12+CAPEX!V12)+0.01*(CAPEX!S12+CAPEX!T12)</f>
-        <v>2920.9008073992691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67227.8721002112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <f>0.1*(CAPEX!U13+CAPEX!V13)+0.01*(CAPEX!S13+CAPEX!T13)</f>
-        <v>12626.112007182181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12139.814930199653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <f>0.1*(CAPEX!U14+CAPEX!V14)+0.01*(CAPEX!S14+CAPEX!T14)</f>
-        <v>2621.7435413371186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70921.654760442281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <f>0.1*(CAPEX!U15+CAPEX!V15)+0.01*(CAPEX!S15+CAPEX!T15)</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
     </row>
   </sheetData>
@@ -16316,26 +16350,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="34" max="34" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -16415,7 +16449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16463,31 +16497,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-1783.1838111821821</v>
+        <v>-71204.476920599642</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-1783.1838111821821</v>
+        <v>-71204.476920599642</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-1783.1838111821821</v>
+        <v>-71204.476920599642</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-1927.1838111821821</v>
+        <v>-71348.476920599642</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-1927.1838111821821</v>
+        <v>-71348.476920599642</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-1927.1838111821821</v>
+        <v>-71348.476920599642</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16495,30 +16529,30 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-1783.1838111821821</v>
+        <v>-71204.476920599642</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-1783.1838111821821</v>
+        <v>-71204.476920599642</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-1783.1838111821821</v>
+        <v>-71204.476920599642</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-1927.1838111821821</v>
+        <v>-71348.476920599642</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-1927.1838111821821</v>
+        <v>-71348.476920599642</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-1927.1838111821821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-71348.476920599642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -16565,31 +16599,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-1351.1838111821821</v>
+        <v>-70772.476920599642</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-1267.1838111821821</v>
+        <v>-70688.476920599642</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-631.18381118218213</v>
+        <v>-70052.476920599642</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-1531.1838111821821</v>
+        <v>-70952.476920599642</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-1459.1838111821821</v>
+        <v>-70880.476920599642</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-907.18381118218213</v>
+        <v>-70328.476920599642</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -16597,30 +16631,30 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-1228.3489192565291</v>
+        <v>-64338.615382363307</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-1151.9852828928929</v>
+        <v>-64262.251745999674</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-573.80346471107464</v>
+        <v>-63684.069927817851</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-1391.9852828928929</v>
+        <v>-64502.251745999674</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-1326.5307374383474</v>
+        <v>-64436.79720054513</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-824.71255562016552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-63934.979018726946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -16676,31 +16710,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-715.18381118218213</v>
+        <v>-70136.476920599642</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-595.18381118218213</v>
+        <v>-70016.476920599642</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>1576.8161888178179</v>
+        <v>-67844.476920599642</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-979.18381118218213</v>
+        <v>-70400.476920599642</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-871.18381118218213</v>
+        <v>-70292.476920599642</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>1084.8161888178179</v>
+        <v>-68336.476920599642</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -16708,30 +16742,30 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-591.06100097700994</v>
+        <v>-57964.030512892263</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-491.88744725800171</v>
+        <v>-57864.856959173252</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>1303.1538750560476</v>
+        <v>-56069.815636859203</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-809.24281915882807</v>
+        <v>-58182.212331074079</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-719.98662081172074</v>
+        <v>-58092.956132726969</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>896.54230480811384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-56476.427207107139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -16788,31 +16822,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>112.81618881781787</v>
+        <v>-69308.476920599642</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>448.81618881781787</v>
+        <v>-68972.476920599642</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>5968.8161888178183</v>
+        <v>-63452.476920599642</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-223.18381118218213</v>
+        <v>-69644.476920599642</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>88.816188817817874</v>
+        <v>-69332.476920599642</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>5044.8161888178183</v>
+        <v>-64376.476920599642</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -16820,30 +16854,30 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>84.760472440133611</v>
+        <v>-52072.484538391902</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>337.20224554306367</v>
+        <v>-51820.04276528897</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>4484.4599465197716</v>
+        <v>-47672.785064312266</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-167.68130066279645</v>
+        <v>-52324.926311494833</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>66.728917218495752</v>
+        <v>-52090.516093613536</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>3790.2450704867142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-48366.999940345318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -16900,31 +16934,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>1276.8161888178179</v>
+        <v>-68144.476920599642</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>1888.8161888178179</v>
+        <v>-67532.476920599642</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>14464.816188817818</v>
+        <v>-54956.476920599642</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>808.81618881781787</v>
+        <v>-68612.476920599642</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>1372.8161888178179</v>
+        <v>-68048.476920599642</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>12700.816188817818</v>
+        <v>-56720.476920599642</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -16932,30 +16966,30 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>872.08263699051815</v>
+        <v>-46543.59464558406</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>1290.0868716739412</v>
+        <v>-46125.590410900637</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>9879.6640863450684</v>
+        <v>-37536.013196229513</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>552.43233987966505</v>
+        <v>-46863.244942694917</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>937.65192870556484</v>
+        <v>-46478.025353869016</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>8674.8283510810834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-38740.8489314935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17012,31 +17046,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>2860.8161888178179</v>
+        <v>-66560.476920599642</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>3928.8161888178179</v>
+        <v>-65492.476920599642</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>30760.816188817818</v>
+        <v>-38660.476920599642</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>2260.8161888178179</v>
+        <v>-67160.476920599642</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>3208.8161888178179</v>
+        <v>-66212.476920599642</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>27352.816188817818</v>
+        <v>-42068.476920599642</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -17044,30 +17078,30 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>1776.3417729898088</v>
+        <v>-41328.819392987076</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>2439.485746016986</v>
+        <v>-40665.675419959902</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>19100.046686340233</v>
+        <v>-24005.114479636653</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>1403.7889791543157</v>
+        <v>-41701.372186822569</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>1992.4223934143945</v>
+        <v>-41112.738772562487</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>16983.94681735463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-26121.214348622252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17124,31 +17158,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>5044.8161888178183</v>
+        <v>-64376.476920599642</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>6844.8161888178183</v>
+        <v>-62576.476920599642</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>60664.816188817815</v>
+        <v>-8756.4769205996417</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>4192.8161888178183</v>
+        <v>-65228.476920599642</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>5848.8161888178183</v>
+        <v>-63572.476920599642</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>54268.816188817815</v>
+        <v>-15152.476920599642</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -17156,30 +17190,30 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>2847.6672205009122</v>
+        <v>-36338.842930387167</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>3863.720294597711</v>
+        <v>-35322.789856290365</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>34243.707210091998</v>
+        <v>-4942.8029407960767</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>2366.735432095094</v>
+        <v>-36819.774718792985</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>3301.5042602641493</v>
+        <v>-35885.005890623928</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>30633.331953468041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-8553.1781974200367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17235,31 +17269,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>8020.8161888178183</v>
+        <v>-61400.476920599642</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>10948.816188817818</v>
+        <v>-58472.476920599642</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>111472.81618881781</v>
+        <v>42051.523079400358</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>6892.8161888178183</v>
+        <v>-62528.476920599642</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>9508.8161888178183</v>
+        <v>-59912.476920599642</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>100000.81618881781</v>
+        <v>30579.523079400358</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -17267,30 +17301,30 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>4115.9469421281383</v>
+        <v>-31508.153195042833</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>5618.473912307647</v>
+        <v>-30005.626224863325</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>57203.180589331183</v>
+        <v>21579.080452160211</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>3537.1045847639016</v>
+        <v>-32086.995552407072</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>4879.5262220554296</v>
+        <v>-30744.573915115543</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>51316.230656988519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>15692.130519817545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17346,31 +17380,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>12076.816188817818</v>
+        <v>-57344.476920599642</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>16708.816188817818</v>
+        <v>-52712.476920599642</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>185164.81618881781</v>
+        <v>115743.52307940036</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>10540.816188817818</v>
+        <v>-58880.476920599642</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>14692.816188817818</v>
+        <v>-54728.476920599642</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>166312.81618881781</v>
+        <v>96891.523079400358</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -17378,30 +17412,30 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>5633.9238815198942</v>
+        <v>-26751.621697726445</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>7794.786066651378</v>
+        <v>-24590.759512594959</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>86380.753307262188</v>
+        <v>53995.207728015848</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>4917.3685455177447</v>
+        <v>-27468.177033728596</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>6854.3071881485566</v>
+        <v>-25531.238391097784</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>77586.156175548298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>45200.610596301958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17457,31 +17491,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>17548.816188817818</v>
+        <v>-51872.476920599642</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>24676.816188817818</v>
+        <v>-44744.476920599642</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>263908.81618881784</v>
+        <v>194487.52307940036</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>15460.816188817818</v>
+        <v>-53960.476920599642</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>21868.816188817818</v>
+        <v>-47552.476920599642</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>237196.81618881781</v>
+        <v>167775.52307940036</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -17489,30 +17523,30 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>7442.4111509341401</v>
+        <v>-21998.993921107984</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>10465.378974693211</v>
+        <v>-18976.026097348913</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>111923.10041317948</v>
+        <v>82481.69534113734</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>6556.8953237723917</v>
+        <v>-22884.509748269735</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>9274.5128623032742</v>
+        <v>-20166.892209738853</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>100594.60483121366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>71153.199759171519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17569,31 +17603,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>24892.816188817818</v>
+        <v>-44528.476920599642</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>35512.816188817815</v>
+        <v>-33908.476920599642</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>311188.81618881784</v>
+        <v>241767.52307940036</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>22060.816188817818</v>
+        <v>-47360.476920599642</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>31636.816188817818</v>
+        <v>-37784.476920599642</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>279748.81618881784</v>
+        <v>210327.52307940036</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -17601,30 +17635,30 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>9597.258236601514</v>
+        <v>-17167.65546525496</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>13691.727970343138</v>
+        <v>-13073.185731513337</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>119976.75982711867</v>
+        <v>93211.846125262178</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>8505.3996409370811</v>
+        <v>-18259.514060919395</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>12197.362180514276</v>
+        <v>-14567.5515213422</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>107855.2788074542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>81090.36510559771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -17680,31 +17714,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>34540.816188817815</v>
+        <v>-34880.476920599642</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>50104.816188817815</v>
+        <v>-19316.476920599642</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>321328.81618881784</v>
+        <v>251907.52307940036</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>30748.816188817818</v>
+        <v>-38672.476920599642</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>44752.816188817815</v>
+        <v>-24668.476920599642</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>288880.81618881784</v>
+        <v>219459.52307940036</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -17712,30 +17746,30 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>12106.345357288756</v>
+        <v>-12225.394371671671</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>17561.432408817145</v>
+        <v>-6770.3073201432835</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>112623.78980175828</v>
+        <v>88292.050072797836</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>10777.272490455318</v>
+        <v>-13554.467238505111</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>15685.589058792733</v>
+        <v>-8646.1506701676935</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>101250.96375138607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>76919.224022425624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -17791,31 +17825,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>47164.816188817815</v>
+        <v>-22256.476920599642</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>69148.816188817815</v>
+        <v>-272.47692059964174</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>321784.81618881784</v>
+        <v>252363.52307940036</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>42124.816188817815</v>
+        <v>-27296.476920599642</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>61912.816188817815</v>
+        <v>-7508.4769205996417</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>289264.81618881784</v>
+        <v>219843.52307940036</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -17823,30 +17857,30 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>15028.163949401684</v>
+        <v>-7091.5994405623424</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>22032.943845946163</v>
+        <v>-86.819544017863748</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>102530.55910901981</v>
+        <v>80410.795719055779</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>13422.264628141485</v>
+        <v>-8697.4987618225387</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>19727.331248994022</v>
+        <v>-2392.4321409700037</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>92168.684917079023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>70048.921527114988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -17902,31 +17936,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>63244.816188817815</v>
+        <v>-6176.4769205996417</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>93268.816188817815</v>
+        <v>23847.523079400358</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>321868.81618881784</v>
+        <v>252447.52307940036</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>56608.816188817815</v>
+        <v>-12812.476920599642</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>83608.816188817815</v>
+        <v>14187.523079400358</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>289348.81618881784</v>
+        <v>219927.52307940036</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -17934,30 +17968,30 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>18319.770452894743</v>
+        <v>-1789.1053561634626</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>27016.653790109056</v>
+        <v>6907.7779810508518</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>93233.930997915901</v>
+        <v>73125.055188857688</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>16397.557628962084</v>
+        <v>-3711.3181800961229</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>24218.495881852654</v>
+        <v>4109.6200727944479</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>83814.045368878811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>63705.169559820592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18013,31 +18047,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>83236.816188817815</v>
+        <v>13815.523079400358</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>122296.81618881781</v>
+        <v>52875.523079400358</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>321904.81618881784</v>
+        <v>252483.52307940036</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>74572.816188817815</v>
+        <v>5151.5230794003583</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>109720.81618881781</v>
+        <v>40299.523079400358</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>289372.81618881784</v>
+        <v>219951.52307940036</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -18045,30 +18079,30 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>21918.855211446</v>
+        <v>3638.0590213930896</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>32204.574004641472</v>
+        <v>13923.777814588564</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>84767.599014169449</v>
+        <v>66486.80282411653</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>19637.353224138122</v>
+        <v>1356.5570340852148</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>28892.920150488215</v>
+        <v>10612.123960435305</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>76200.906649084063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>57920.110459031144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18124,31 +18158,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>107272.81618881781</v>
+        <v>37851.523079400358</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>155320.81618881781</v>
+        <v>85899.523079400358</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>321928.81618881784</v>
+        <v>252507.52307940036</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>96208.816188817815</v>
+        <v>26787.523079400358</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>139480.81618881781</v>
+        <v>70059.523079400358</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>289396.81618881784</v>
+        <v>219975.52307940036</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -18156,30 +18190,30 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>25680.259309042664</v>
+        <v>9061.3536817218373</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>37182.568497132226</v>
+        <v>20563.6628698114</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>77067.199058429804</v>
+        <v>60448.293431108978</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>23031.62567482224</v>
+        <v>6412.7200475014142</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>33390.598435124681</v>
+        <v>16771.692807803851</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>69279.296908352189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+        <v>52660.391281031349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18235,31 +18269,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>134920.81618881781</v>
+        <v>65499.523079400358</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>190180.81618881781</v>
+        <v>120759.52307940036</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>321940.81618881784</v>
+        <v>252519.52307940036</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>121096.81618881781</v>
+        <v>51675.523079400358</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>170848.81618881781</v>
+        <v>101427.52307940036</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>289408.81618881784</v>
+        <v>219987.52307940036</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -18267,30 +18301,30 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>29362.700627273902</v>
+        <v>14254.604602436788</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>41388.886671037508</v>
+        <v>26280.790646200396</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>70063.701602747489</v>
+        <v>54955.60557791037</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>26354.19545411089</v>
+        <v>11246.099429273774</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>37181.680217942361</v>
+        <v>22073.584193105246</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>62983.790557222375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+        <v>47875.694532385256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18337,31 +18371,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>165004.81618881781</v>
+        <v>95583.523079400358</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>223780.81618881781</v>
+        <v>154359.52307940036</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>321952.81618881784</v>
+        <v>252531.52307940036</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>148192.81618881781</v>
+        <v>78771.523079400358</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>201052.81618881781</v>
+        <v>131631.52307940036</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>289420.81618881784</v>
+        <v>219999.52307940036</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -18369,30 +18403,30 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>32645.323225804299</v>
+        <v>18910.690475952379</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>44273.841485078636</v>
+        <v>30539.208735226715</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>63696.648320342698</v>
+        <v>49962.015570490767</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>29319.158652255232</v>
+        <v>15584.525902403308</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>39777.227850316369</v>
+        <v>26042.595100464445</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>57260.365551683506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>43525.732801831575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18439,31 +18473,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>195760.81618881781</v>
+        <v>126339.52307940036</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>253156.81618881781</v>
+        <v>183735.52307940036</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>321952.81618881784</v>
+        <v>252531.52307940036</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>175864.81618881781</v>
+        <v>106443.52307940036</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>227500.81618881781</v>
+        <v>158079.52307940036</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>289420.81618881784</v>
+        <v>219999.52307940036</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -18471,30 +18505,30 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>35209.303511360769</v>
+        <v>22723.273738768115</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>45532.478616989996</v>
+        <v>33046.448844397346</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>57906.043927584265</v>
+        <v>45420.014154991608</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>31630.833027327059</v>
+        <v>19144.803254734401</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>40918.02150307921</v>
+        <v>28431.991730486559</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>52054.877774257729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+        <v>39568.848001665065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18541,31 +18575,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>225016.81618881781</v>
+        <v>155595.52307940036</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>276412.81618881784</v>
+        <v>206991.52307940036</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>321952.81618881784</v>
+        <v>252531.52307940036</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>202192.81618881781</v>
+        <v>132771.52307940036</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>248464.81618881781</v>
+        <v>179043.52307940036</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>289420.81618881784</v>
+        <v>219999.52307940036</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -18573,30 +18607,30 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>36792.047517222469</v>
+        <v>25441.111360320057</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>45195.70421374424</v>
+        <v>33844.768056841822</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>52641.858115985684</v>
+        <v>41290.921959083265</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>33060.141134597114</v>
+        <v>21709.204977694702</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>40625.982886123595</v>
+        <v>29275.046729221187</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>47322.616158416102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>35971.680001513691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -18643,31 +18677,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>3067.1838111821821</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>250804.81618881781</v>
+        <v>181383.52307940036</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>293212.81618881784</v>
+        <v>223791.52307940036</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>321952.81618881784</v>
+        <v>252531.52307940036</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>225412.81618881781</v>
+        <v>155991.52307940036</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>263560.81618881784</v>
+        <v>194139.52307940036</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>289420.81618881784</v>
+        <v>219999.52307940036</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -18675,30 +18709,30 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>37280.537804234315</v>
+        <v>26961.504934323035</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>43584.216781482202</v>
+        <v>33265.183911570908</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>47856.234650896084</v>
+        <v>37537.201780984797</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>33506.178801445269</v>
+        <v>23187.145931533982</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>39176.635923310299</v>
+        <v>28857.603053399009</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>43020.560144014649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+        <v>32701.527274103359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -18709,7 +18743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -18717,7 +18751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -18740,7 +18774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -18775,7 +18809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -18810,7 +18844,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -18839,7 +18873,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -18868,7 +18902,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -18897,7 +18931,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -18926,7 +18960,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -18969,7 +19003,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -18998,7 +19032,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19027,7 +19061,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19056,7 +19090,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19085,7 +19119,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19114,7 +19148,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19143,7 +19177,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19172,7 +19206,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19201,7 +19235,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19230,7 +19264,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19259,7 +19293,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19288,7 +19322,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19317,7 +19351,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19346,7 +19380,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19375,12 +19409,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -19403,7 +19437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -19432,7 +19466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -19461,7 +19495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -19490,7 +19524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -19519,7 +19553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -19548,7 +19582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -19577,7 +19611,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -19606,7 +19640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -19635,7 +19669,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -19664,7 +19698,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -19693,7 +19727,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -19722,7 +19756,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -19751,7 +19785,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -19780,7 +19814,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -19809,7 +19843,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -19838,7 +19872,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -19867,7 +19901,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -19896,7 +19930,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -19925,7 +19959,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -19954,7 +19988,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -19983,7 +20017,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -20026,12 +20060,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -20096,7 +20130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -20161,7 +20195,7 @@
         <v>-2190.4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -20226,7 +20260,7 @@
         <v>-1745.8181818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -20291,7 +20325,7 @@
         <v>-1152.7272727272725</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -20356,7 +20390,7 @@
         <v>-271.6754320060104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -20421,7 +20455,7 @@
         <v>1132.4363089952869</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -20486,7 +20520,7 @@
         <v>3421.2764900559437</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -20551,7 +20585,7 @@
         <v>7111.4683603895064</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -20616,7 +20650,7 @@
         <v>12637.031819549376</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -20681,7 +20715,7 @@
         <v>19631.750176938076</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -20746,7 +20780,7 @@
         <v>25757.144754234483</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -20811,7 +20845,7 @@
         <v>27732.128808666199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -20876,7 +20910,7 @@
         <v>26051.37036309313</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -20941,7 +20975,7 @@
         <v>23718.623165704772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -21006,7 +21040,7 @@
         <v>21567.598654930509</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -21071,7 +21105,7 @@
         <v>19609.751845665145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -21136,7 +21170,7 @@
         <v>17828.770755178317</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -21201,7 +21235,7 @@
         <v>16208.756878687314</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -21266,7 +21300,7 @@
         <v>14735.233526079377</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -21331,7 +21365,7 @@
         <v>13396.314333534016</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -21396,7 +21430,7 @@
         <v>12178.467575940011</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -21475,9 +21509,9 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -21542,7 +21576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -21607,7 +21641,7 @@
         <v>-643.25983705752697</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -21672,7 +21706,7 @@
         <v>-72.05439732502451</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -21737,7 +21771,7 @@
         <v>842.92575449791173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -21802,7 +21836,7 @@
         <v>2399.955043533037</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -21867,7 +21901,7 @@
         <v>5063.5476831790656</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -21932,7 +21966,7 @@
         <v>9614.8053492014751</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -21997,7 +22031,7 @@
         <v>17108.945253898943</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -22062,7 +22096,7 @@
         <v>28481.47643541612</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -22127,7 +22161,7 @@
         <v>42935.072124649887</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -22192,7 +22226,7 @@
         <v>55591.029717606398</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -22257,7 +22291,7 @@
         <v>59573.817578243667</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -22322,7 +22356,7 @@
         <v>55920.299306813948</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -22387,7 +22421,7 @@
         <v>50906.989418017678</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -22452,7 +22486,7 @@
         <v>46290.899595800242</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -22517,7 +22551,7 @@
         <v>42086.427966244024</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -22582,7 +22616,7 @@
         <v>38263.836305732766</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -22647,7 +22681,7 @@
         <v>34786.872662262016</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -22712,7 +22746,7 @@
         <v>31625.854174581553</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -22777,7 +22811,7 @@
         <v>28750.776522346863</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -22842,7 +22876,7 @@
         <v>26137.069565769867</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -22920,9 +22954,9 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -22987,7 +23021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -23052,7 +23086,7 @@
         <v>-1109.126864467409</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -23117,7 +23151,7 @@
         <v>-288.29714951582633</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -23182,7 +23216,7 @@
         <v>1015.2670541591659</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -23247,7 +23281,7 @@
         <v>3227.4028065609241</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -23312,7 +23346,7 @@
         <v>6989.4632439946645</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -23377,7 +23411,7 @@
         <v>13408.717198609498</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -23442,7 +23476,7 @@
         <v>23970.539617621173</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -23507,7 +23541,7 @@
         <v>39989.218104327483</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -23572,7 +23606,7 @@
         <v>60342.763748394696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -23637,7 +23671,7 @@
         <v>78167.498727406026</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -23702,7 +23736,7 @@
         <v>83782.440422845291</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -23767,7 +23801,7 @@
         <v>78647.351738187601</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -23832,7 +23866,7 @@
         <v>71593.946448537085</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -23897,7 +23931,7 @@
         <v>65103.480919602007</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -23962,7 +23996,7 @@
         <v>59190.038614266297</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -24027,7 +24061,7 @@
         <v>53813.722340317247</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -24092,7 +24126,7 @@
         <v>48923.655003628359</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -24157,7 +24191,7 @@
         <v>44477.949312119948</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -24222,7 +24256,7 @@
         <v>40434.499374654493</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -24287,7 +24321,7 @@
         <v>36758.635795140442</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -24365,9 +24399,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -24432,7 +24466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -24497,7 +24531,7 @@
         <v>-1540.4913604115791</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -24562,7 +24596,7 @@
         <v>-680.4466912832537</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -24627,7 +24661,7 @@
         <v>658.76747073423201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -24692,7 +24726,7 @@
         <v>2903.3122761746204</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -24757,7 +24791,7 @@
         <v>6694.8354890980245</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24822,7 +24856,7 @@
         <v>13140.873785067099</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -24887,7 +24921,7 @@
         <v>23727.045605309897</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -24952,7 +24986,7 @@
         <v>39767.859911317231</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -25017,7 +25051,7 @@
         <v>60141.529027476296</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -25082,7 +25116,7 @@
         <v>77984.558072025655</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -25147,7 +25181,7 @@
         <v>83616.130736135863</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -25212,7 +25246,7 @@
         <v>78496.161113906302</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -25277,7 +25311,7 @@
         <v>71456.500426463172</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -25342,7 +25376,7 @@
         <v>64978.529990443909</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -25407,7 +25441,7 @@
         <v>59076.446860486205</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -25472,7 +25506,7 @@
         <v>53710.457109608076</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -25537,7 +25571,7 @@
         <v>48829.777521165473</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -25602,7 +25636,7 @@
         <v>44392.606146244601</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -25667,7 +25701,7 @@
         <v>40356.91467840418</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -25732,7 +25766,7 @@
         <v>36688.104253094702</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -25810,9 +25844,9 @@
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -25877,7 +25911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -25942,7 +25976,7 @@
         <v>-11344.748312411579</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -26007,7 +26041,7 @@
         <v>-9386.1348294650707</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -26072,7 +26106,7 @@
         <v>-6886.5688532327094</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -26137,7 +26171,7 @@
         <v>-3285.3105277322147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -26202,7 +26236,7 @@
         <v>2242.5050799729665</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -26267,7 +26301,7 @@
         <v>11136.380207256343</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -26332,7 +26366,7 @@
         <v>25317.362307924141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -26397,7 +26431,7 @@
         <v>46483.530979221337</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -26462,7 +26496,7 @@
         <v>73192.792832123596</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -26527,7 +26561,7 @@
         <v>96600.638155373017</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -26592,7 +26626,7 @@
         <v>104224.40001123541</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -26657,7 +26691,7 @@
         <v>97950.164845732623</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -26722,7 +26756,7 @@
         <v>89167.958639212258</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -26787,7 +26821,7 @@
         <v>81086.112388999929</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -26852,7 +26886,7 @@
         <v>73720.967576466894</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -26917,7 +26951,7 @@
         <v>67024.806842336591</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -26982,7 +27016,7 @@
         <v>60934.254133571834</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -27047,7 +27081,7 @@
         <v>55397.1506210921</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -27112,7 +27146,7 @@
         <v>50361.046019174632</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -27177,7 +27211,7 @@
         <v>45782.769108340566</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -27255,9 +27289,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -27322,7 +27356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -27387,7 +27421,7 @@
         <v>-7392.4157164674089</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -27452,7 +27486,7 @@
         <v>-5793.1051967885533</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -27517,7 +27551,7 @@
         <v>-3620.1782780722383</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -27582,7 +27616,7 @@
         <v>-315.86455031360538</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -27647,7 +27681,7 @@
         <v>4942.0014230807928</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -27712,7 +27746,7 @@
         <v>13590.46779189982</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -27777,7 +27811,7 @@
         <v>27548.351021236394</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -27842,7 +27876,7 @@
         <v>48511.702536777928</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -27907,7 +27941,7 @@
         <v>75036.585157175039</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -27972,7 +28006,7 @@
         <v>98276.812996328881</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -28037,7 +28071,7 @@
         <v>105748.19532119529</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -28102,7 +28136,7 @@
         <v>99335.433309332511</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -28167,7 +28201,7 @@
         <v>90427.293606121239</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -28232,7 +28266,7 @@
         <v>82230.962358917197</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -28297,7 +28331,7 @@
         <v>74761.740276391676</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -28362,7 +28396,7 @@
         <v>67970.963842268204</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -28427,7 +28461,7 @@
         <v>61794.396860782392</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -28492,7 +28526,7 @@
         <v>56179.098554919889</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -28557,7 +28591,7 @@
         <v>51071.907777199893</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -28622,7 +28656,7 @@
         <v>46429.007070181709</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="708" windowWidth="13680" windowHeight="11196" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -41,7 +36,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +542,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -772,9 +767,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -920,7 +915,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1036,7 +1031,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1152,7 +1147,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1268,7 +1263,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1284,11 +1279,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="168358400"/>
-        <c:axId val="193047936"/>
+        <c:axId val="162805248"/>
+        <c:axId val="161329664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168358400"/>
+        <c:axId val="162805248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193047936"/>
+        <c:crossAx val="161329664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193047936"/>
+        <c:axId val="161329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168358400"/>
+        <c:crossAx val="162805248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1375,9 +1370,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1404,6 +1399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1485,51 +1481,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>51114.587309311035</c:v>
+                  <c:v>36062.342937580564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30429.282118970365</c:v>
+                  <c:v>19283.042118970367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66109.823692218881</c:v>
+                  <c:v>43709.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66648.422052537615</c:v>
+                  <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8108.705667292159</c:v>
+                  <c:v>10540.776519765759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8798.3519740095981</c:v>
+                  <c:v>11938.918689039821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69659.850521829372</c:v>
+                  <c:v>50983.71612182937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70126.863400003014</c:v>
+                  <c:v>47726.863400003029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70620.289169209602</c:v>
+                  <c:v>48220.289169209609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51210.227713520049</c:v>
+                  <c:v>37682.867713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67227.8721002112</c:v>
+                  <c:v>44827.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70921.654760442281</c:v>
+                  <c:v>47419.574760442287</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72488.476920599642</c:v>
+                  <c:v>50088.476920599649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91EA-4BE3-8D39-C1A7A45459C7}"/>
             </c:ext>
@@ -1544,11 +1540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168358912"/>
-        <c:axId val="193050240"/>
+        <c:axId val="164097024"/>
+        <c:axId val="161331968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168358912"/>
+        <c:axId val="164097024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193050240"/>
+        <c:crossAx val="161331968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193050240"/>
+        <c:axId val="161331968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,13 +1585,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168358912"/>
+        <c:crossAx val="164097024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,9 +1610,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1792,7 +1789,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -1957,7 +1954,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2122,7 +2119,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2137,11 +2134,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171459072"/>
-        <c:axId val="193051968"/>
+        <c:axId val="101306880"/>
+        <c:axId val="163700032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171459072"/>
+        <c:axId val="101306880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193051968"/>
+        <c:crossAx val="163700032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193051968"/>
+        <c:axId val="163700032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171459072"/>
+        <c:crossAx val="101306880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,7 +2208,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2249,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2290,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2390,26 +2387,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2442,23 +2422,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2641,27 +2604,27 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2777,7 +2740,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2856,7 +2819,7 @@
         <v>307967.22911888885</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2934,7 +2897,7 @@
         <v>216506.84792333335</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3008,7 +2971,7 @@
         <v>145045.86878666666</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3086,7 +3049,7 @@
         <v>218092.13545333332</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3164,7 +3127,7 @@
         <v>288249.58125666669</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +3203,7 @@
         <v>347869.80689666665</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3316,7 +3279,7 @@
         <v>221159.28125666664</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3391,7 +3354,7 @@
         <v>153163.03545333334</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3468,7 +3431,7 @@
         <v>215033.99423000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3544,7 +3507,7 @@
         <v>178789.21166999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3621,7 +3584,7 @@
         <v>298182.08727000002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3697,7 +3660,7 @@
         <v>247844.99423000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3774,13 +3737,13 @@
         <v>196669.21166999999</v>
       </c>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3794,12 +3757,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3819,7 +3782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3830,7 +3793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3862,7 +3825,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5307,7 +5270,7 @@
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6752,9 +6715,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -8200,7 +8163,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9645,7 +9608,7 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11090,7 +11053,7 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12535,7 +12498,7 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13980,7 +13943,7 @@
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15425,23 +15388,23 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -16209,17 +16172,17 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -16227,96 +16190,96 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
         <f>AVERAGE(B3:B15)</f>
-        <v>51114.587309311035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36062.342937580564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>30429.282118970365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19283.042118970367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>66109.823692218881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43709.823692218881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>66648.422052537615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44248.4220525376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>8108.705667292159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10540.776519765759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>8798.3519740095981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11938.918689039821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>69659.850521829372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50983.71612182937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>70126.863400003014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47726.863400003029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>70620.289169209602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48220.289169209609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>51210.227713520049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37682.867713520049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>67227.8721002112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44827.8721002112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -16324,20 +16287,20 @@
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>70921.654760442281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47419.574760442287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
     </row>
   </sheetData>
@@ -16354,22 +16317,22 @@
       <selection activeCell="H5" sqref="H5:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -16449,7 +16412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16497,31 +16460,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-71204.476920599642</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-71204.476920599642</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-71204.476920599642</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-71348.476920599642</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-71348.476920599642</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-71348.476920599642</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16529,30 +16492,30 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-71204.476920599642</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-71204.476920599642</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-71204.476920599642</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-71348.476920599642</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-71348.476920599642</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-71348.476920599642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-48948.476920599649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -16599,31 +16562,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-70772.476920599642</v>
+        <v>-48372.476920599649</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-70688.476920599642</v>
+        <v>-48288.476920599649</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-70052.476920599642</v>
+        <v>-47652.476920599649</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-70952.476920599642</v>
+        <v>-48552.476920599649</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-70880.476920599642</v>
+        <v>-48480.476920599649</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-70328.476920599642</v>
+        <v>-47928.476920599649</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -16631,30 +16594,30 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-64338.615382363307</v>
+        <v>-43974.979018726954</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-64262.251745999674</v>
+        <v>-43898.615382363314</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-63684.069927817851</v>
+        <v>-43320.433564181498</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-64502.251745999674</v>
+        <v>-44138.615382363314</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-64436.79720054513</v>
+        <v>-44073.16083690877</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-63934.979018726946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-43571.342655090586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -16710,31 +16673,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-70136.476920599642</v>
+        <v>-47736.476920599649</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-70016.476920599642</v>
+        <v>-47616.476920599649</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-67844.476920599642</v>
+        <v>-45444.476920599649</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-70400.476920599642</v>
+        <v>-48000.476920599649</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-70292.476920599642</v>
+        <v>-47892.476920599649</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-68336.476920599642</v>
+        <v>-45936.476920599649</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -16742,30 +16705,30 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-57964.030512892263</v>
+        <v>-39451.633818677394</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-57864.856959173252</v>
+        <v>-39352.460264958383</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-56069.815636859203</v>
+        <v>-37557.418942644334</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-58182.212331074079</v>
+        <v>-39669.81563685921</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-58092.956132726969</v>
+        <v>-39580.5594385121</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-56476.427207107139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-37964.03051289227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -16822,31 +16785,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-69308.476920599642</v>
+        <v>-46908.476920599649</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-68972.476920599642</v>
+        <v>-46572.476920599649</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-63452.476920599642</v>
+        <v>-41052.476920599649</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-69644.476920599642</v>
+        <v>-47244.476920599649</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-69332.476920599642</v>
+        <v>-46932.476920599649</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-64376.476920599642</v>
+        <v>-41976.476920599649</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -16854,30 +16817,30 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-52072.484538391902</v>
+        <v>-35243.03299819657</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-51820.04276528897</v>
+        <v>-34990.591225093638</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-47672.785064312266</v>
+        <v>-30843.333524116933</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-52324.926311494833</v>
+        <v>-35495.474771299501</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-52090.516093613536</v>
+        <v>-35261.064553418211</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-48366.999940345318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-31537.54840014999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -16934,31 +16897,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-68144.476920599642</v>
+        <v>-45744.476920599649</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-67532.476920599642</v>
+        <v>-45132.476920599649</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-54956.476920599642</v>
+        <v>-32556.476920599649</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-68612.476920599642</v>
+        <v>-46212.476920599649</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-68048.476920599642</v>
+        <v>-45648.476920599649</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-56720.476920599642</v>
+        <v>-34320.476920599649</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -16966,30 +16929,30 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-46543.59464558406</v>
+        <v>-31244.093245406486</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-46125.590410900637</v>
+        <v>-30826.089010723063</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-37536.013196229513</v>
+        <v>-22236.511796051938</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-46863.244942694917</v>
+        <v>-31563.743542517339</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-46478.025353869016</v>
+        <v>-31178.523953691441</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-38740.8489314935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-23441.347531315922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17046,31 +17009,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-66560.476920599642</v>
+        <v>-44160.476920599649</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-65492.476920599642</v>
+        <v>-43092.476920599649</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-38660.476920599642</v>
+        <v>-16260.476920599649</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-67160.476920599642</v>
+        <v>-44760.476920599649</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-66212.476920599642</v>
+        <v>-43812.476920599649</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-42068.476920599642</v>
+        <v>-19668.476920599649</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -17078,30 +17041,30 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-41328.819392987076</v>
+        <v>-27420.181756462011</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-40665.675419959902</v>
+        <v>-26757.037783434833</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-24005.114479636653</v>
+        <v>-10096.476843111588</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-41701.372186822569</v>
+        <v>-27792.734550297504</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-41112.738772562487</v>
+        <v>-27204.101136037425</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-26121.214348622252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-12212.576712097187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17158,31 +17121,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-64376.476920599642</v>
+        <v>-41976.476920599649</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-62576.476920599642</v>
+        <v>-40176.476920599649</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>-8756.4769205996417</v>
+        <v>13643.523079400351</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-65228.476920599642</v>
+        <v>-42828.476920599649</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-63572.476920599642</v>
+        <v>-41172.476920599649</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>-15152.476920599642</v>
+        <v>7247.523079400351</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -17190,30 +17153,30 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-36338.842930387167</v>
+        <v>-23694.626897182559</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-35322.789856290365</v>
+        <v>-22678.573823085761</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>-4942.8029407960767</v>
+        <v>7701.4130924085284</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-36819.774718792985</v>
+        <v>-24175.558685588378</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-35885.005890623928</v>
+        <v>-23240.789857419324</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>-8553.1781974200367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4091.0378357845698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17269,31 +17232,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-61400.476920599642</v>
+        <v>-39000.476920599649</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-58472.476920599642</v>
+        <v>-36072.476920599649</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>42051.523079400358</v>
+        <v>64451.523079400351</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-62528.476920599642</v>
+        <v>-40128.476920599649</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-59912.476920599642</v>
+        <v>-37512.476920599649</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>30579.523079400358</v>
+        <v>52979.523079400351</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -17301,30 +17264,30 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-31508.153195042833</v>
+        <v>-20013.411346675013</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-30005.626224863325</v>
+        <v>-18510.884376495505</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>21579.080452160211</v>
+        <v>33073.822300528031</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-32086.995552407072</v>
+        <v>-20592.253704039249</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-30744.573915115543</v>
+        <v>-19249.83206674772</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>15692.130519817545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <v>27186.872368185366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17380,31 +17343,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-57344.476920599642</v>
+        <v>-34944.476920599649</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-52712.476920599642</v>
+        <v>-30312.476920599649</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>115743.52307940036</v>
+        <v>138143.52307940036</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-58880.476920599642</v>
+        <v>-36480.476920599649</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-54728.476920599642</v>
+        <v>-32328.476920599649</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>96891.523079400358</v>
+        <v>119291.52307940036</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -17412,30 +17375,30 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-26751.621697726445</v>
+        <v>-16301.856381028425</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-24590.759512594959</v>
+        <v>-14140.994195896941</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>53995.207728015848</v>
+        <v>64444.973044713872</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-27468.177033728596</v>
+        <v>-17018.411717030576</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-25531.238391097784</v>
+        <v>-15081.473074399764</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>45200.610596301958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+        <v>55650.375912999982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17491,31 +17454,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-51872.476920599642</v>
+        <v>-29472.476920599649</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-44744.476920599642</v>
+        <v>-22344.476920599649</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>194487.52307940036</v>
+        <v>216887.52307940036</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-53960.476920599642</v>
+        <v>-31560.476920599649</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-47552.476920599642</v>
+        <v>-25152.476920599649</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>167775.52307940036</v>
+        <v>190175.52307940036</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -17523,30 +17486,30 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-21998.993921107984</v>
+        <v>-12499.207269564333</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-18976.026097348913</v>
+        <v>-9476.2394458052604</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>82481.69534113734</v>
+        <v>91981.481992680987</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-22884.509748269735</v>
+        <v>-13384.72309672608</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-20166.892209738853</v>
+        <v>-10667.105558195199</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>71153.199759171519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+        <v>80652.986410715181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17603,31 +17566,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-44528.476920599642</v>
+        <v>-22128.476920599649</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-33908.476920599642</v>
+        <v>-11508.476920599649</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>241767.52307940036</v>
+        <v>264167.52307940036</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-47360.476920599642</v>
+        <v>-24960.476920599649</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-37784.476920599642</v>
+        <v>-15384.476920599649</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>210327.52307940036</v>
+        <v>232727.52307940036</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -17635,30 +17598,30 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-17167.65546525496</v>
+        <v>-8531.4857820334582</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-13073.185731513337</v>
+        <v>-4437.0160482918336</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>93211.846125262178</v>
+        <v>101848.01580848369</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-18259.514060919395</v>
+        <v>-9623.3443776978911</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-14567.5515213422</v>
+        <v>-5931.3818381206975</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>81090.36510559771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <v>89726.534788819219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -17714,31 +17677,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-34880.476920599642</v>
+        <v>-12480.476920599649</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>-19316.476920599642</v>
+        <v>3083.523079400351</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>251907.52307940036</v>
+        <v>274307.52307940036</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-38672.476920599642</v>
+        <v>-16272.476920599649</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-24668.476920599642</v>
+        <v>-2268.476920599649</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>219459.52307940036</v>
+        <v>241859.52307940036</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -17746,30 +17709,30 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-12225.394371671671</v>
+        <v>-4374.3310232884887</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>-6770.3073201432835</v>
+        <v>1080.7560282398995</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>88292.050072797836</v>
+        <v>96143.113421181028</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-13554.467238505111</v>
+        <v>-5703.4038901219283</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-8646.1506701676935</v>
+        <v>-795.08732178451146</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>76919.224022425624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+        <v>84770.287370808801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -17825,31 +17788,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>-22256.476920599642</v>
+        <v>143.52307940035098</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>-272.47692059964174</v>
+        <v>22127.523079400351</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>252363.52307940036</v>
+        <v>274763.52307940036</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-27296.476920599642</v>
+        <v>-4896.476920599649</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>-7508.4769205996417</v>
+        <v>14891.523079400351</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>219843.52307940036</v>
+        <v>242243.52307940036</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -17857,30 +17820,30 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>-7091.5994405623424</v>
+        <v>45.730876149642263</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>-86.819544017863748</v>
+        <v>7050.5107726941205</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>80410.795719055779</v>
+        <v>87548.126035767767</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-8697.4987618225387</v>
+        <v>-1560.1684451105548</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>-2392.4321409700037</v>
+        <v>4744.8981757419806</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>70048.921527114988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>77186.251843826962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -17936,31 +17899,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>-6176.4769205996417</v>
+        <v>16223.523079400351</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>23847.523079400358</v>
+        <v>46247.523079400351</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>252447.52307940036</v>
+        <v>274847.52307940036</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>-12812.476920599642</v>
+        <v>9587.523079400351</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>14187.523079400358</v>
+        <v>36587.523079400351</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>219927.52307940036</v>
+        <v>242327.52307940036</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -17968,30 +17931,30 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>-1789.1053561634626</v>
+        <v>4699.3767499383421</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>6907.7779810508518</v>
+        <v>13396.260087152656</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>73125.055188857688</v>
+        <v>79613.537294959489</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>-3711.3181800961229</v>
+        <v>2777.1639260056818</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>4109.6200727944479</v>
+        <v>10598.102178896252</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>63705.169559820592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+        <v>70193.6516659224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18047,31 +18010,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>13815.523079400358</v>
+        <v>36215.523079400351</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>52875.523079400358</v>
+        <v>75275.523079400358</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>252483.52307940036</v>
+        <v>274883.52307940036</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>5151.5230794003583</v>
+        <v>27551.523079400351</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>40299.523079400358</v>
+        <v>62699.523079400351</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>219951.52307940036</v>
+        <v>242351.52307940036</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -18079,30 +18042,30 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>3638.0590213930896</v>
+        <v>9536.6791178492731</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>13923.777814588564</v>
+        <v>19822.397911044751</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>66486.80282411653</v>
+        <v>72385.422920572717</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>1356.5570340852148</v>
+        <v>7255.1771305413986</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>10612.123960435305</v>
+        <v>16510.74405689149</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>57920.110459031144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+        <v>63818.730555487324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18158,31 +18121,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>37851.523079400358</v>
+        <v>60251.523079400351</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>85899.523079400358</v>
+        <v>108299.52307940036</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>252507.52307940036</v>
+        <v>274907.52307940036</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>26787.523079400358</v>
+        <v>49187.523079400351</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>70059.523079400358</v>
+        <v>92459.523079400358</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>219975.52307940036</v>
+        <v>242375.52307940036</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -18190,30 +18153,30 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>9061.3536817218373</v>
+        <v>14423.735587591096</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>20563.6628698114</v>
+        <v>25926.044775680661</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>60448.293431108978</v>
+        <v>65810.675336978238</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>6412.7200475014142</v>
+        <v>11775.101953370673</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>16771.692807803851</v>
+        <v>22134.074713673112</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>52660.391281031349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>58022.773186900609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18269,31 +18232,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>65499.523079400358</v>
+        <v>87899.523079400358</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>120759.52307940036</v>
+        <v>143159.52307940036</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>252519.52307940036</v>
+        <v>274919.52307940036</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>51675.523079400358</v>
+        <v>74075.523079400358</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>101427.52307940036</v>
+        <v>123827.52307940036</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>219987.52307940036</v>
+        <v>242387.52307940036</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -18301,30 +18264,30 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>14254.604602436788</v>
+        <v>19129.497244136117</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>26280.790646200396</v>
+        <v>31155.683287899723</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>54955.60557791037</v>
+        <v>59830.498219609697</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>11246.099429273774</v>
+        <v>16120.992070973101</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>22073.584193105246</v>
+        <v>26948.476834804573</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>47875.694532385256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>52750.587174084583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18371,31 +18334,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>95583.523079400358</v>
+        <v>117983.52307940036</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>154359.52307940036</v>
+        <v>176759.52307940036</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>252531.52307940036</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>78771.523079400358</v>
+        <v>101171.52307940036</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>131631.52307940036</v>
+        <v>154031.52307940036</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>219999.52307940036</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -18403,30 +18366,30 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>18910.690475952379</v>
+        <v>23342.411059315404</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>30539.208735226715</v>
+        <v>34970.92931858974</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>49962.015570490767</v>
+        <v>54393.736153853795</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>15584.525902403308</v>
+        <v>20016.246485766333</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>26042.595100464445</v>
+        <v>30474.31568382747</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>43525.732801831575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>47957.453385194603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18473,31 +18436,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>126339.52307940036</v>
+        <v>148739.52307940036</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>183735.52307940036</v>
+        <v>206135.52307940036</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>252531.52307940036</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>106443.52307940036</v>
+        <v>128843.52307940036</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>158079.52307940036</v>
+        <v>180479.52307940036</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>219999.52307940036</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -18505,30 +18468,30 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>22723.273738768115</v>
+        <v>26752.110632734504</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>33046.448844397346</v>
+        <v>37075.285738363731</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>45420.014154991608</v>
+        <v>49448.851048957993</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>19144.803254734401</v>
+        <v>23173.640148700786</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>28431.991730486559</v>
+        <v>32460.828624452944</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>39568.848001665065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+        <v>43597.68489563145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18575,31 +18538,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>155595.52307940036</v>
+        <v>177995.52307940036</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>206991.52307940036</v>
+        <v>229391.52307940036</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>252531.52307940036</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>132771.52307940036</v>
+        <v>155171.52307940036</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>179043.52307940036</v>
+        <v>201443.52307940036</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>219999.52307940036</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -18607,30 +18570,30 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>25441.111360320057</v>
+        <v>29103.690354834955</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>33844.768056841822</v>
+        <v>37507.347051356715</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>41290.921959083265</v>
+        <v>44953.500953598159</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>21709.204977694702</v>
+        <v>25371.7839722096</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>29275.046729221187</v>
+        <v>32937.625723736084</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>35971.680001513691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+        <v>39634.258996028584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -18677,31 +18640,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>181383.52307940036</v>
+        <v>203783.52307940036</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>223791.52307940036</v>
+        <v>246191.52307940036</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>252531.52307940036</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>155991.52307940036</v>
+        <v>178391.52307940036</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>194139.52307940036</v>
+        <v>216539.52307940036</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>219999.52307940036</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -18709,30 +18672,30 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>26961.504934323035</v>
+        <v>30291.122202063849</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>33265.183911570908</v>
+        <v>36594.801179311726</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>37537.201780984797</v>
+        <v>40866.819048725607</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>23187.145931533982</v>
+        <v>26516.763199274796</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>28857.603053399009</v>
+        <v>32187.220321139823</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>32701.527274103359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+        <v>36031.144541844173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -18743,7 +18706,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -18751,7 +18714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -18774,7 +18737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -18809,7 +18772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -18844,7 +18807,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -18873,7 +18836,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -18902,7 +18865,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -18931,7 +18894,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -18960,7 +18923,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19003,7 +18966,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19032,7 +18995,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19061,7 +19024,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19090,7 +19053,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19119,7 +19082,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19148,7 +19111,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19177,7 +19140,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19206,7 +19169,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19235,7 +19198,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19264,7 +19227,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19293,7 +19256,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19322,7 +19285,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19351,7 +19314,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19380,7 +19343,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19409,12 +19372,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -19437,7 +19400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -19466,7 +19429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -19495,7 +19458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -19524,7 +19487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -19553,7 +19516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -19582,7 +19545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -19611,7 +19574,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -19640,7 +19603,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -19669,7 +19632,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -19698,7 +19661,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -19727,7 +19690,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -19756,7 +19719,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -19785,7 +19748,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -19814,7 +19777,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -19843,7 +19806,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -19872,7 +19835,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -19901,7 +19864,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -19930,7 +19893,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -19959,7 +19922,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -19988,7 +19951,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -20017,7 +19980,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -20060,9 +20023,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -21509,7 +21472,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22954,7 +22917,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24399,7 +24362,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25844,7 +25807,7 @@
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27289,7 +27252,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -796,6 +799,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1127,7 +1131,7 @@
                   <c:v>12818.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11216.333333333334</c:v>
+                  <c:v>5866.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4000</c:v>
@@ -1139,7 +1143,7 @@
                   <c:v>14160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27600</c:v>
+                  <c:v>14800</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14160</c:v>
@@ -1279,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="162805248"/>
-        <c:axId val="161329664"/>
+        <c:axId val="62907904"/>
+        <c:axId val="133455168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162805248"/>
+        <c:axId val="62907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,13 +1309,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161329664"/>
+        <c:crossAx val="133455168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161329664"/>
+        <c:axId val="133455168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,19 +1347,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162805248"/>
+        <c:crossAx val="62907904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1370,6 +1377,613 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Capital Expenditure of various technologies in business scenario</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]CAPEX!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duct Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]CAPEX!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_UDWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]CAPEX!$S$3:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>146337.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146337.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78872.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78872.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146337.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146337.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146337.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78872.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114876.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115530.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115530.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114876.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115530.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F92B-4BDB-8C8A-80B4841F7958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]CAPEX!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fiber Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]CAPEX!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_UDWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]CAPEX!$T$3:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.840229999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.814590000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.612120000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.612120000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.814590000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.840229999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.814590000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.612120000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.59423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.21167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.08727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.59423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.21167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F92B-4BDB-8C8A-80B4841F7958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]CAPEX!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]CAPEX!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_UDWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]CAPEX!$U$3:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3056.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6405.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5299.166666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5866.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12618.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6426.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12818.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5866.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F92B-4BDB-8C8A-80B4841F7958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]CAPEX!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RN Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]CAPEX!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_UDWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]CAPEX!$V$3:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>158553.60000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63750.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133338.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129280.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195086.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61989.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55966.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168466.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66966.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F92B-4BDB-8C8A-80B4841F7958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62909952"/>
+        <c:axId val="133588096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62909952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Technology</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133588096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133588096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Cost in C.U.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62909952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1481,7 +2095,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1540,11 +2154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164097024"/>
-        <c:axId val="161331968"/>
+        <c:axId val="163129856"/>
+        <c:axId val="133590400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164097024"/>
+        <c:axId val="163129856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +2168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161331968"/>
+        <c:crossAx val="133590400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +2176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161331968"/>
+        <c:axId val="133590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +2206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164097024"/>
+        <c:crossAx val="163129856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,7 +2223,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2134,11 +2748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101306880"/>
-        <c:axId val="163700032"/>
+        <c:axId val="163478016"/>
+        <c:axId val="133592128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101306880"/>
+        <c:axId val="163478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163700032"/>
+        <c:crossAx val="133592128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2156,7 +2770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163700032"/>
+        <c:axId val="133592128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101306880"/>
+        <c:crossAx val="163478016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2221,6 +2835,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1674284</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2309,6 +2961,328 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CAPEX"/>
+      <sheetName val="OPEX"/>
+      <sheetName val="Revenue"/>
+      <sheetName val="ADSL"/>
+      <sheetName val="FTTC_GPON_25"/>
+      <sheetName val="FTTB_XGPON_50"/>
+      <sheetName val="FTTB_UDWDM_50"/>
+      <sheetName val="FTTH_UDWDM_100"/>
+      <sheetName val="FTTH_XGPON_100"/>
+      <sheetName val="FTTC_GPON_100"/>
+      <sheetName val="FTTB_XGPON_100"/>
+      <sheetName val="FTTB_UDWDM_100"/>
+      <sheetName val="FTTC_Hybridpon_25"/>
+      <sheetName val="FTTB_Hybridpon_50"/>
+      <sheetName val="FTTH_Hybridpon_100"/>
+      <sheetName val="FTTC_Hybridpon_100"/>
+      <sheetName val="FTTB_Hybridpon_100"/>
+      <sheetName val="MIG_MATRIX"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="S1" t="str">
+            <v>Duct Cost</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>Fiber Cost</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>CO cost</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>RN Cost</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>FTTC_GPON_25</v>
+          </cell>
+          <cell r="S3">
+            <v>146337.9</v>
+          </cell>
+          <cell r="T3">
+            <v>18.840229999999998</v>
+          </cell>
+          <cell r="U3">
+            <v>3056.8888888888887</v>
+          </cell>
+          <cell r="V3">
+            <v>158553.60000000001</v>
+          </cell>
+          <cell r="X3">
+            <v>307967.22911888885</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>FTTB_XGPON_50</v>
+          </cell>
+          <cell r="S4">
+            <v>146337.9</v>
+          </cell>
+          <cell r="T4">
+            <v>12.814590000000001</v>
+          </cell>
+          <cell r="U4">
+            <v>6405.333333333333</v>
+          </cell>
+          <cell r="V4">
+            <v>63750.8</v>
+          </cell>
+          <cell r="X4">
+            <v>216506.84792333335</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>FTTB_UDWDM_50</v>
+          </cell>
+          <cell r="S5">
+            <v>78872.09</v>
+          </cell>
+          <cell r="T5">
+            <v>14.612120000000001</v>
+          </cell>
+          <cell r="U5">
+            <v>5299.166666666667</v>
+          </cell>
+          <cell r="V5">
+            <v>60860</v>
+          </cell>
+          <cell r="X5">
+            <v>145045.86878666666</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>FTTH_UDWDM_100</v>
+          </cell>
+          <cell r="S6">
+            <v>78872.09</v>
+          </cell>
+          <cell r="T6">
+            <v>14.612120000000001</v>
+          </cell>
+          <cell r="U6">
+            <v>5866.833333333333</v>
+          </cell>
+          <cell r="V6">
+            <v>133338.59999999998</v>
+          </cell>
+          <cell r="X6">
+            <v>218092.13545333332</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>FTTH_XGPON_100</v>
+          </cell>
+          <cell r="S7">
+            <v>146337.9</v>
+          </cell>
+          <cell r="T7">
+            <v>12.814590000000001</v>
+          </cell>
+          <cell r="U7">
+            <v>12618.666666666666</v>
+          </cell>
+          <cell r="V7">
+            <v>129280.20000000001</v>
+          </cell>
+          <cell r="X7">
+            <v>288249.58125666669</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FTTC_GPON_100</v>
+          </cell>
+          <cell r="S8">
+            <v>146337.9</v>
+          </cell>
+          <cell r="T8">
+            <v>18.840229999999998</v>
+          </cell>
+          <cell r="U8">
+            <v>6426.666666666667</v>
+          </cell>
+          <cell r="V8">
+            <v>195086.4</v>
+          </cell>
+          <cell r="X8">
+            <v>347869.80689666665</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>FTTB_XGPON_100</v>
+          </cell>
+          <cell r="S9">
+            <v>146337.9</v>
+          </cell>
+          <cell r="T9">
+            <v>12.814590000000001</v>
+          </cell>
+          <cell r="U9">
+            <v>12818.666666666666</v>
+          </cell>
+          <cell r="V9">
+            <v>61989.9</v>
+          </cell>
+          <cell r="X9">
+            <v>221159.28125666664</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FTTB_UDWDM_100</v>
+          </cell>
+          <cell r="S10">
+            <v>78872.09</v>
+          </cell>
+          <cell r="T10">
+            <v>14.612120000000001</v>
+          </cell>
+          <cell r="U10">
+            <v>5866.833333333333</v>
+          </cell>
+          <cell r="V10">
+            <v>63060</v>
+          </cell>
+          <cell r="X10">
+            <v>147813.53545333334</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>FTTC_Hybridpon_25</v>
+          </cell>
+          <cell r="S11">
+            <v>114876.4</v>
+          </cell>
+          <cell r="T11">
+            <v>12.59423</v>
+          </cell>
+          <cell r="U11">
+            <v>4000</v>
+          </cell>
+          <cell r="V11">
+            <v>96145</v>
+          </cell>
+          <cell r="X11">
+            <v>215033.99423000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>FTTB_Hybridpon_50</v>
+          </cell>
+          <cell r="S12">
+            <v>115530.5</v>
+          </cell>
+          <cell r="T12">
+            <v>12.21167</v>
+          </cell>
+          <cell r="U12">
+            <v>7280</v>
+          </cell>
+          <cell r="V12">
+            <v>55966.5</v>
+          </cell>
+          <cell r="X12">
+            <v>178789.21166999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>FTTH_Hybridpon_100</v>
+          </cell>
+          <cell r="S13">
+            <v>115530.5</v>
+          </cell>
+          <cell r="T13">
+            <v>25.08727</v>
+          </cell>
+          <cell r="U13">
+            <v>14160</v>
+          </cell>
+          <cell r="V13">
+            <v>168466.5</v>
+          </cell>
+          <cell r="X13">
+            <v>298182.08727000002</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>FTTC_Hybridpon_100</v>
+          </cell>
+          <cell r="S14">
+            <v>114876.4</v>
+          </cell>
+          <cell r="T14">
+            <v>12.59423</v>
+          </cell>
+          <cell r="U14">
+            <v>14800</v>
+          </cell>
+          <cell r="V14">
+            <v>105356</v>
+          </cell>
+          <cell r="X14">
+            <v>235044.99423000001</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FTTB_Hybridpon_100</v>
+          </cell>
+          <cell r="S15">
+            <v>115530.5</v>
+          </cell>
+          <cell r="T15">
+            <v>12.21167</v>
+          </cell>
+          <cell r="U15">
+            <v>14160</v>
+          </cell>
+          <cell r="V15">
+            <v>66966.5</v>
+          </cell>
+          <cell r="X15">
+            <v>196669.21166999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2600,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +3598,7 @@
     <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +3672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2740,7 +3714,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2815,11 +3789,11 @@
         <v>161610.48888888888</v>
       </c>
       <c r="X3" s="12">
-        <f t="shared" ref="X3:X14" si="0">S3+T3+U3+V3</f>
+        <f>S3+T3+U3+V3</f>
         <v>307967.22911888885</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2889,15 +3863,15 @@
         <v>63750.8</v>
       </c>
       <c r="W4" s="11">
-        <f t="shared" ref="W4:W15" si="1">SUM(U4,V4)</f>
+        <f t="shared" ref="W4:W15" si="0">SUM(U4,V4)</f>
         <v>70156.133333333331</v>
       </c>
       <c r="X4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X4:X14" si="1">S4+T4+U4+V4</f>
         <v>216506.84792333335</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2963,15 +3937,15 @@
         <v>60860</v>
       </c>
       <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>66159.166666666672</v>
+      </c>
+      <c r="X5" s="12">
         <f t="shared" si="1"/>
-        <v>66159.166666666672</v>
-      </c>
-      <c r="X5" s="12">
-        <f t="shared" si="0"/>
         <v>145045.86878666666</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3041,15 +4015,15 @@
         <v>133338.59999999998</v>
       </c>
       <c r="W6" s="11">
+        <f t="shared" si="0"/>
+        <v>139205.43333333332</v>
+      </c>
+      <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>139205.43333333332</v>
-      </c>
-      <c r="X6" s="12">
-        <f t="shared" si="0"/>
         <v>218092.13545333332</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3119,15 +4093,15 @@
         <v>129280.20000000001</v>
       </c>
       <c r="W7" s="11">
+        <f t="shared" si="0"/>
+        <v>141898.86666666667</v>
+      </c>
+      <c r="X7" s="12">
         <f t="shared" si="1"/>
-        <v>141898.86666666667</v>
-      </c>
-      <c r="X7" s="12">
-        <f t="shared" si="0"/>
         <v>288249.58125666669</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3195,15 +4169,15 @@
         <v>195086.4</v>
       </c>
       <c r="W8" s="11">
+        <f t="shared" si="0"/>
+        <v>201513.06666666665</v>
+      </c>
+      <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>201513.06666666665</v>
-      </c>
-      <c r="X8" s="12">
-        <f t="shared" si="0"/>
         <v>347869.80689666665</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3271,15 +4245,15 @@
         <v>61989.9</v>
       </c>
       <c r="W9" s="11">
+        <f t="shared" si="0"/>
+        <v>74808.566666666666</v>
+      </c>
+      <c r="X9" s="12">
         <f t="shared" si="1"/>
-        <v>74808.566666666666</v>
-      </c>
-      <c r="X9" s="12">
-        <f t="shared" si="0"/>
         <v>221159.28125666664</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3340,21 +4314,21 @@
         <v>14.612120000000001</v>
       </c>
       <c r="U10" s="11">
-        <v>11216.333333333334</v>
+        <v>5866.833333333333</v>
       </c>
       <c r="V10" s="11">
         <v>63060</v>
       </c>
       <c r="W10" s="11">
+        <f t="shared" si="0"/>
+        <v>68926.833333333328</v>
+      </c>
+      <c r="X10" s="12">
         <f t="shared" si="1"/>
-        <v>74276.333333333328</v>
-      </c>
-      <c r="X10" s="12">
-        <f t="shared" si="0"/>
-        <v>153163.03545333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>147813.53545333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3423,15 +4397,15 @@
         <v>96145</v>
       </c>
       <c r="W11" s="11">
+        <f t="shared" si="0"/>
+        <v>100145</v>
+      </c>
+      <c r="X11" s="12">
         <f t="shared" si="1"/>
-        <v>100145</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="0"/>
         <v>215033.99423000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3499,15 +4473,15 @@
         <v>55966.5</v>
       </c>
       <c r="W12" s="11">
+        <f t="shared" si="0"/>
+        <v>63246.5</v>
+      </c>
+      <c r="X12" s="12">
         <f t="shared" si="1"/>
-        <v>63246.5</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" si="0"/>
         <v>178789.21166999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3576,15 +4550,15 @@
         <v>168466.5</v>
       </c>
       <c r="W13" s="11">
+        <f t="shared" si="0"/>
+        <v>182626.5</v>
+      </c>
+      <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>182626.5</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="0"/>
         <v>298182.08727000002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3646,21 +4620,21 @@
         <v>12.59423</v>
       </c>
       <c r="U14" s="11">
-        <v>27600</v>
+        <v>14800</v>
       </c>
       <c r="V14" s="11">
         <v>105356</v>
       </c>
       <c r="W14" s="11">
+        <f t="shared" si="0"/>
+        <v>120156</v>
+      </c>
+      <c r="X14" s="12">
         <f t="shared" si="1"/>
-        <v>132956</v>
-      </c>
-      <c r="X14" s="12">
-        <f t="shared" si="0"/>
-        <v>247844.99423000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>235044.99423000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3729,7 +4703,7 @@
         <v>66966.5</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81126.5</v>
       </c>
       <c r="X15" s="12">
@@ -3737,7 +4711,7 @@
         <v>196669.21166999999</v>
       </c>
     </row>
-    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
@@ -15384,8 +16358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15407,7 +16381,7 @@
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -15454,7 +16428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -15462,59 +16436,59 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>CAPEX!$X3</f>
+        <f>[1]CAPEX!$X3</f>
         <v>307967.22911888885</v>
       </c>
       <c r="D2">
-        <f>CAPEX!$X4</f>
+        <f>[1]CAPEX!$X4</f>
         <v>216506.84792333335</v>
       </c>
       <c r="E2">
-        <f>CAPEX!$X5</f>
+        <f>[1]CAPEX!$X5</f>
         <v>145045.86878666666</v>
       </c>
       <c r="F2">
-        <f>CAPEX!$X6</f>
+        <f>[1]CAPEX!$X6</f>
         <v>218092.13545333332</v>
       </c>
       <c r="G2">
-        <f>CAPEX!$X7</f>
+        <f>[1]CAPEX!$X7</f>
         <v>288249.58125666669</v>
       </c>
       <c r="H2">
-        <f>CAPEX!$X8</f>
+        <f>[1]CAPEX!$X8</f>
         <v>347869.80689666665</v>
       </c>
       <c r="I2">
-        <f>CAPEX!$X9</f>
+        <f>[1]CAPEX!$X9</f>
         <v>221159.28125666664</v>
       </c>
       <c r="J2">
-        <f>CAPEX!$X10</f>
-        <v>153163.03545333334</v>
+        <f>[1]CAPEX!$X10</f>
+        <v>147813.53545333334</v>
       </c>
       <c r="K2">
-        <f>CAPEX!$X11</f>
+        <f>[1]CAPEX!$X11</f>
         <v>215033.99423000001</v>
       </c>
       <c r="L2">
-        <f>CAPEX!$X12</f>
+        <f>[1]CAPEX!$X12</f>
         <v>178789.21166999999</v>
       </c>
       <c r="M2">
-        <f>CAPEX!$X13</f>
+        <f>[1]CAPEX!$X13</f>
         <v>298182.08727000002</v>
       </c>
       <c r="N2">
-        <f>CAPEX!$X14</f>
-        <v>247844.99423000001</v>
+        <f>[1]CAPEX!$X14</f>
+        <v>235044.99423000001</v>
       </c>
       <c r="O2">
-        <f>CAPEX!$X15</f>
+        <f>[1]CAPEX!$X15</f>
         <v>196669.21166999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -15525,8 +16499,8 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>D2-C2</f>
-        <v>-91460.381195555499</v>
+        <f>IF(D2-C2&gt;0,D2-C2,0)</f>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -15535,8 +16509,8 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>G2-C2</f>
-        <v>-19717.647862222162</v>
+        <f>IF(G2-C2&gt;0,G2-C2,0)</f>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
@@ -15544,7 +16518,7 @@
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
-        <v>-86807.947862222209</v>
+        <v>4652.4333333332906</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -15565,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -15614,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -15645,7 +16619,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>8117.1666666666861</v>
+        <v>2767.6666666666861</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -15663,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -15710,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -15757,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -15777,15 +16751,15 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G2-H2</f>
-        <v>-59620.225639999961</v>
+        <f>IF(G2-H2&gt;0,G2-H2,0)</f>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I2-H2</f>
-        <v>-126710.52564000001</v>
+        <f>IF(I2-H2&gt;0,I2-H2,0)</f>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -15806,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -15854,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -15872,7 +16846,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>64929.099999999977</v>
+        <v>70278.599999999977</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -15902,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -15937,8 +16911,8 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f>L2-K2</f>
-        <v>-36244.782560000021</v>
+        <f>IF(L2-K2&gt;0,L2-K2,0)</f>
+        <v>0</v>
       </c>
       <c r="M11">
         <f>M2-K2</f>
@@ -15946,14 +16920,14 @@
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>32811</v>
+        <v>20011</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>-18364.782560000021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -16002,7 +16976,7 @@
         <v>17880</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -16049,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -16088,17 +17062,17 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>50337.093040000007</v>
+        <v>63137.093040000007</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <f>O2-N2</f>
-        <v>-51175.782560000021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(O2-N2&gt;0,O2-N2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -16171,8 +17145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16195,8 +17169,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16314,7 +17287,7 @@
   <dimension ref="A1:AH74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -479,67 +479,67 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_101</t>
+    <t>Approx OPEX per year</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_102</t>
+    <t>FTTH_Hybridpon_101</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_103</t>
+    <t>FTTH_Hybridpon_102</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_104</t>
+    <t>FTTH_Hybridpon_103</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_105</t>
+    <t>FTTH_Hybridpon_104</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_106</t>
+    <t>FTTH_Hybridpon_105</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_107</t>
+    <t>FTTH_Hybridpon_106</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_108</t>
+    <t>FTTH_Hybridpon_107</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_109</t>
+    <t>FTTH_Hybridpon_108</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_110</t>
+    <t>FTTH_Hybridpon_109</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_111</t>
+    <t>FTTH_Hybridpon_110</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_112</t>
+    <t>FTTH_Hybridpon_111</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_113</t>
+    <t>FTTH_Hybridpon_112</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_114</t>
+    <t>FTTH_Hybridpon_113</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_115</t>
+    <t>FTTH_Hybridpon_114</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_116</t>
+    <t>FTTH_Hybridpon_115</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_117</t>
+    <t>FTTH_Hybridpon_116</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_118</t>
+    <t>FTTH_Hybridpon_117</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_119</t>
+    <t>FTTH_Hybridpon_118</t>
   </si>
   <si>
-    <t>FTTB_Hybridpon_120</t>
+    <t>FTTH_Hybridpon_119</t>
   </si>
   <si>
-    <t>Approx OPEX per year</t>
+    <t>FTTH_Hybridpon_120</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -717,6 +717,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -729,7 +740,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -744,6 +755,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="8"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="7"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="7" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="8" builtinId="22"/>
@@ -1283,11 +1295,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62907904"/>
-        <c:axId val="133455168"/>
+        <c:axId val="160302592"/>
+        <c:axId val="164274176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62907904"/>
+        <c:axId val="160302592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133455168"/>
+        <c:crossAx val="164274176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133455168"/>
+        <c:axId val="164274176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62907904"/>
+        <c:crossAx val="160302592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62909952"/>
-        <c:axId val="133588096"/>
+        <c:axId val="161284096"/>
+        <c:axId val="164590080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62909952"/>
+        <c:axId val="161284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133588096"/>
+        <c:crossAx val="164590080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133588096"/>
+        <c:axId val="164590080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62909952"/>
+        <c:crossAx val="161284096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2013,7 +2025,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2154,11 +2165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163129856"/>
-        <c:axId val="133590400"/>
+        <c:axId val="161287168"/>
+        <c:axId val="202178560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163129856"/>
+        <c:axId val="161287168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133590400"/>
+        <c:crossAx val="202178560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2176,7 +2187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133590400"/>
+        <c:axId val="202178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,14 +2210,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163129856"/>
+        <c:crossAx val="161287168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2748,11 +2758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163478016"/>
-        <c:axId val="133592128"/>
+        <c:axId val="163386368"/>
+        <c:axId val="202182016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163478016"/>
+        <c:axId val="163386368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133592128"/>
+        <c:crossAx val="202182016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2770,7 +2780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133592128"/>
+        <c:axId val="202182016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,7 +2791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163478016"/>
+        <c:crossAx val="163386368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16358,7 +16368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -17161,7 +17171,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -17287,7 +17297,7 @@
   <dimension ref="A1:AH74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17402,7 +17412,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="M2" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N2" s="7">
         <v>2018</v>
@@ -17432,32 +17442,32 @@
         <v>1140</v>
       </c>
       <c r="U2" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-10855.814930199653</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-10855.814930199653</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-10855.814930199653</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-10999.814930199653</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-10999.814930199653</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-10999.814930199653</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17465,27 +17475,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-10855.814930199653</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-10855.814930199653</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-10855.814930199653</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-10999.814930199653</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-10999.814930199653</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-10999.814930199653</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17504,7 +17514,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="M3" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="7">
         <v>2019</v>
@@ -17534,32 +17544,32 @@
         <v>2160</v>
       </c>
       <c r="U3" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>-10423.814930199653</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>-10339.814930199653</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>-9703.8149301996527</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>-10603.814930199653</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>-10531.814930199653</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>-9979.8149301996527</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17567,27 +17577,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>-9476.1953910905922</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>-9399.8317547269562</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>-8821.6499365451382</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>-9639.8317547269562</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>-9574.3772092724121</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
+        <v>-9072.5590274542301</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17615,7 +17625,7 @@
         <v>82</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="7">
         <v>2020</v>
@@ -17645,32 +17655,32 @@
         <v>4152</v>
       </c>
       <c r="U4" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>-9787.8149301996527</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>-9667.8149301996527</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>-7495.8149301996527</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>-10051.814930199653</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>-9943.8149301996527</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>-7987.8149301996527</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -17678,27 +17688,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>-8089.1032480988861</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>-7989.9296943798772</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>-6194.8883720658278</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>-8307.2850662807032</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>-8218.0288679335972</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
+        <v>-6601.4999423137615</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17727,7 +17737,7 @@
         <v>3.6</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
         <v>2021</v>
@@ -17757,32 +17767,32 @@
         <v>8112</v>
       </c>
       <c r="U5" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>-8959.8149301996527</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>-8623.8149301996527</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>-3103.8149301996527</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>-9295.8149301996527</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>-8983.8149301996527</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>-4027.8149301996527</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -17790,27 +17800,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>-6731.6415703979337</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>-6479.1997972950039</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>-2331.9420963182961</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>-6984.0833435008644</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>-6749.6731256195717</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
+        <v>-3026.1569723513535</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17839,7 +17849,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
         <v>2022</v>
@@ -17869,32 +17879,32 @@
         <v>15768</v>
       </c>
       <c r="U6" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>-7795.8149301996527</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>-7183.8149301996527</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>5392.1850698003473</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>-8263.8149301996527</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>-7699.8149301996527</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>3628.1850698003473</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -17902,27 +17912,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>-5324.6464928622709</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>-4906.6422581788474</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>3682.9349564922791</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>-5644.2967899731239</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>-5259.0772011472245</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
+        <v>2478.0992212282949</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17951,7 +17961,7 @@
         <v>24</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
         <v>2023</v>
@@ -17981,32 +17991,32 @@
         <v>30420</v>
       </c>
       <c r="U7" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>-6211.8149301996527</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>-5143.8149301996527</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>21688.185069800347</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>-6811.8149301996527</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>-5863.8149301996527</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>18280.185069800347</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -18014,27 +18024,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>-3857.0483450581805</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>-3193.9043720310028</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>13466.656568292243</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>-4229.6011388936731</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>-3640.9677246335946</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
+        <v>11350.556699306642</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18063,7 +18073,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
         <v>2024</v>
@@ -18093,32 +18103,32 @@
         <v>57336</v>
       </c>
       <c r="U8" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>-4027.8149301996527</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>-2227.8149301996527</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>51592.185069800347</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>-4879.8149301996527</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>-3223.8149301996527</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>45196.185069800347</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -18126,27 +18136,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>-2273.5965231790783</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>-1257.5434490822793</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>29122.443466412009</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>-2754.5283115848965</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>-1819.7594834158415</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
+        <v>25512.068209788053</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18174,7 +18184,7 @@
         <v>36</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" s="7">
         <v>2025</v>
@@ -18204,32 +18214,32 @@
         <v>103068</v>
       </c>
       <c r="U9" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>-1051.8149301996527</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>1876.1850698003473</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>102400.18506980035</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>-2179.8149301996527</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>436.18506980034726</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>90928.185069800355</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -18237,27 +18247,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>-539.74737030821564</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>962.77959987129282</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>52547.48627689483</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>-1118.5897276724525</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>223.83190961907556</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
+        <v>46660.536344552165</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18285,7 +18295,7 @@
         <v>36</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
         <v>2026</v>
@@ -18315,32 +18325,32 @@
         <v>169380</v>
       </c>
       <c r="U10" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>3004.1850698003473</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>7636.1850698003473</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>176092.18506980035</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>1468.1850698003473</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>5620.1850698003473</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>157240.18506980035</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -18348,27 +18358,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>1401.4745065777543</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>3562.336691709238</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>82148.30393232005</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>684.9191705756042</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>2621.8578132064163</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
+        <v>73353.70680060616</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18396,7 +18406,7 @@
         <v>36</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
         <v>2027</v>
@@ -18426,32 +18436,32 @@
         <v>240264</v>
       </c>
       <c r="U11" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>8476.1850698003473</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>15604.185069800347</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>254836.18506980035</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>6388.1850698003473</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>12796.185069800347</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>228124.18506980035</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -18459,27 +18469,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>3594.7299009867402</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>6617.6977247458108</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>108075.41916323206</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>2709.2140738249918</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>5426.8316123558734</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
+        <v>96746.923581266252</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18508,7 +18518,7 @@
         <v>36</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
         <v>2028</v>
@@ -18538,32 +18548,32 @@
         <v>282816</v>
       </c>
       <c r="U12" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>15820.185069800347</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>26440.185069800347</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>302116.18506980035</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>12988.185069800347</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>22564.185069800347</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>270676.18506980035</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -18571,27 +18581,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>6099.3661911947884</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>10193.835924936413</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>116478.86778171193</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>5007.5075955303546</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>8699.4701351075473</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
+        <v>104357.38676204746</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18619,7 +18629,7 @@
         <v>36</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
         <v>2029</v>
@@ -18649,32 +18659,32 @@
         <v>291948</v>
       </c>
       <c r="U13" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>25468.185069800347</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>41032.185069800347</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>312256.18506980035</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>21676.185069800347</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>35680.185069800347</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>279808.18506980035</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -18682,27 +18692,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>8926.443497828097</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>14381.530549356485</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>109443.8879422976</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>7597.3706309946574</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>12505.687199332073</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
+        <v>98071.06189192539</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18730,7 +18740,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N14" s="7">
         <v>2030</v>
@@ -18760,32 +18770,32 @@
         <v>292332</v>
       </c>
       <c r="U14" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>38092.185069800347</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>60076.185069800347</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>312712.18506980035</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>33052.185069800347</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>52840.185069800347</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>280192.18506980035</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -18793,27 +18803,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>12137.34407716472</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>19142.1239737092</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>99639.739236782843</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>10531.444755904524</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>16836.511376757058</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
+        <v>89277.865044842052</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18841,7 +18851,7 @@
         <v>24</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N15" s="7">
         <v>2031</v>
@@ -18871,32 +18881,32 @@
         <v>292416</v>
       </c>
       <c r="U15" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>54172.185069800347</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>84196.185069800355</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>312796.18506980035</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>47536.185069800347</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>74536.185069800355</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>280276.18506980035</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -18904,27 +18914,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>15691.752387224777</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>24388.635724439093</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>90605.912932245919</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>13769.539563292117</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>21590.477816182691</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
+        <v>81186.02730320883</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18952,7 +18962,7 @@
         <v>36</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
         <v>2032</v>
@@ -18982,32 +18992,32 @@
         <v>292440</v>
       </c>
       <c r="U16" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>74164.185069800355</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>113224.18506980035</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>312832.18506980035</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>65500.185069800347</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>100648.18506980035</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>280300.18506980035</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -19015,27 +19025,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>19529.74787901876</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>29815.466672214232</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>82378.491681742191</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>17248.245891710882</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>26503.812818060975</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
+        <v>73811.799316656805</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19063,7 +19073,7 @@
         <v>36</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N17" s="7">
         <v>2033</v>
@@ -19093,32 +19103,32 @@
         <v>292464</v>
       </c>
       <c r="U17" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>98200.185069800355</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>146248.18506980035</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>312856.18506980035</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>87136.185069800355</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>130408.18506980035</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>280324.18506980035</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -19126,27 +19136,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>23508.343552290629</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>35010.652740380188</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>74895.283301677759</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>20859.709918070203</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>31218.682678372643</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
+        <v>67107.381151600144</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19174,7 +19184,7 @@
         <v>36</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N18" s="7">
         <v>2034</v>
@@ -19204,32 +19214,32 @@
         <v>292476</v>
       </c>
       <c r="U18" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>125848.18506980035</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>181108.18506980035</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>312868.18506980035</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>112024.18506980035</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>161776.18506980035</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>280336.18506980035</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -19237,27 +19247,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>27388.231757499325</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>39414.417801262935</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>68089.232732972901</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>24379.726584336309</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>35207.211348167781</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
+        <v>61009.321687447788</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19276,7 +19286,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="M19" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N19" s="7">
         <v>2035</v>
@@ -19306,32 +19316,32 @@
         <v>292488</v>
       </c>
       <c r="U19" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>155932.18506980035</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>214708.18506980035</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>312880.18506980035</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>139120.18506980035</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>191980.18506980035</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>280348.18506980035</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -19339,27 +19349,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>30850.351526009228</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>42478.869785283568</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>61901.676620547623</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>27524.186952460161</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>37982.256150521294</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
+        <v>55465.393851888432</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19378,7 +19388,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="M20" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N20" s="7">
         <v>2036</v>
@@ -19408,32 +19418,32 @@
         <v>292488</v>
       </c>
       <c r="U20" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>186688.18506980035</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>244084.18506980035</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>312880.18506980035</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>166792.18506980035</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>218428.18506980035</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>280348.18506980035</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -19441,27 +19451,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>33577.511057001619</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>43900.686162630846</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>56274.251473225107</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>29999.040572967901</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>39286.229048720059</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
+        <v>50423.085319898564</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19480,7 +19490,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="M21" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N21" s="7">
         <v>2037</v>
@@ -19510,32 +19520,32 @@
         <v>292488</v>
       </c>
       <c r="U21" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>215944.18506980035</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>267340.18506980035</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>312880.18506980035</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>193120.18506980035</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>239392.18506980035</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>280348.18506980035</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -19543,27 +19553,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>35308.599831441417</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>43712.256527963182</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>51158.410430204625</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>31576.693448816062</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>39142.535200342543</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
+        <v>45839.16847263505</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19582,7 +19592,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="M22" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N22" s="7">
         <v>2038</v>
@@ -19612,32 +19622,32 @@
         <v>292488</v>
       </c>
       <c r="U22" s="7">
-        <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <f>OPEX!$B$13</f>
+        <v>12139.814930199653</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>241732.18506980035</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>284140.18506980035</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>312880.18506980035</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>216340.18506980035</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>254488.18506980035</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>280348.18506980035</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -19645,27 +19655,33 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>35931.94899897882</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>42235.627976226693</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>46507.645845640582</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>32157.589996189767</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>37828.04711805479</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
+        <v>41671.97133875914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE23" s="14">
+        <f>SUM(AE2:AE22)</f>
+        <v>1118212.3490075637</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">

--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -794,6 +794,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -872,43 +873,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>146337.9</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146337.9</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114876.4</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114876.4</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,43 +989,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.59423</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.21167</c:v>
+                  <c:v>12.211670303203721</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.08727</c:v>
+                  <c:v>10.331648594515361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.59423</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.21167</c:v>
+                  <c:v>9.5120485945153614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,7 +1114,7 @@
                   <c:v>5299.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5866.833333333333</c:v>
+                  <c:v>41616.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12618.666666666666</c:v>
@@ -1125,7 +1126,7 @@
                   <c:v>12818.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5866.833333333333</c:v>
+                  <c:v>11216.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4000</c:v>
@@ -1137,7 +1138,7 @@
                   <c:v>14160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14800</c:v>
+                  <c:v>27600</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14160</c:v>
@@ -1229,7 +1230,7 @@
                   <c:v>60860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133338.59999999998</c:v>
+                  <c:v>160920</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>129280.20000000001</c:v>
@@ -1250,7 +1251,7 @@
                   <c:v>55966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168466.5</c:v>
+                  <c:v>108466.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>105356</c:v>
@@ -1277,11 +1278,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="42215424"/>
-        <c:axId val="105124928"/>
+        <c:axId val="88217600"/>
+        <c:axId val="85807616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42215424"/>
+        <c:axId val="88217600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,13 +1304,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105124928"/>
+        <c:crossAx val="85807616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105124928"/>
+        <c:axId val="85807616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,19 +1342,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42215424"/>
+        <c:crossAx val="88217600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1397,6 +1401,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1475,43 +1480,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>146337.9</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146337.9</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114876.4</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114876.4</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,43 +1596,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.59423</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.21167</c:v>
+                  <c:v>12.211670303203721</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.08727</c:v>
+                  <c:v>10.331648594515361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.59423</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.21167</c:v>
+                  <c:v>9.5120485945153614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,7 +1721,7 @@
                   <c:v>5299.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5866.833333333333</c:v>
+                  <c:v>41616.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12618.666666666666</c:v>
@@ -1728,7 +1733,7 @@
                   <c:v>12818.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5866.833333333333</c:v>
+                  <c:v>11216.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4000</c:v>
@@ -1740,7 +1745,7 @@
                   <c:v>14160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14800</c:v>
+                  <c:v>27600</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14160</c:v>
@@ -1832,7 +1837,7 @@
                   <c:v>60860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133338.59999999998</c:v>
+                  <c:v>160920</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>129280.20000000001</c:v>
@@ -1853,7 +1858,7 @@
                   <c:v>55966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168466.5</c:v>
+                  <c:v>108466.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>105356</c:v>
@@ -1880,11 +1885,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="63406080"/>
-        <c:axId val="105127232"/>
+        <c:axId val="88360448"/>
+        <c:axId val="85809920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63406080"/>
+        <c:axId val="88360448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,13 +1911,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105127232"/>
+        <c:crossAx val="85809920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1920,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105127232"/>
+        <c:axId val="85809920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,19 +1949,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63406080"/>
+        <c:crossAx val="88360448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2082,7 +2090,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -2094,7 +2102,7 @@
                   <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762708578561</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11938.918689039821</c:v>
@@ -2141,11 +2149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63086592"/>
-        <c:axId val="63588032"/>
+        <c:axId val="88362496"/>
+        <c:axId val="159966336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63086592"/>
+        <c:axId val="88362496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63588032"/>
+        <c:crossAx val="159966336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63588032"/>
+        <c:axId val="159966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,7 +2201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63086592"/>
+        <c:crossAx val="88362496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2619,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2753,13 +2761,13 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="X2" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2818,10 +2826,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <v>146337.9</v>
+        <v>96261.143172944852</v>
       </c>
       <c r="T3" s="11">
-        <v>18.840229999999998</v>
+        <v>5.1327825331856927</v>
       </c>
       <c r="U3" s="11">
         <v>3056.8888888888887</v>
@@ -2835,10 +2843,10 @@
       </c>
       <c r="X3" s="12">
         <f>S3+T3+U3+V3</f>
-        <v>307967.22911888885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>257876.76484436693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2896,10 +2904,10 @@
         <v>384090.36767452297</v>
       </c>
       <c r="S4" s="11">
-        <v>146337.9</v>
+        <v>146337.87420813384</v>
       </c>
       <c r="T4" s="11">
-        <v>12.814590000000001</v>
+        <v>12.814589886676153</v>
       </c>
       <c r="U4" s="11">
         <v>6405.333333333333</v>
@@ -2913,10 +2921,10 @@
       </c>
       <c r="X4" s="12">
         <f t="shared" ref="X4:X14" si="1">S4+T4+U4+V4</f>
-        <v>216506.84792333335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>216506.82213135384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2970,10 +2978,10 @@
         <v>658286.15266324603</v>
       </c>
       <c r="S5" s="11">
-        <v>78872.09</v>
+        <v>78872.086550701642</v>
       </c>
       <c r="T5" s="11">
-        <v>14.612120000000001</v>
+        <v>14.612123172178348</v>
       </c>
       <c r="U5" s="11">
         <v>5299.166666666667</v>
@@ -2987,10 +2995,10 @@
       </c>
       <c r="X5" s="12">
         <f t="shared" si="1"/>
-        <v>145045.86878666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>145045.86534054048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3048,27 +3056,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="S6" s="11">
-        <v>78872.09</v>
+        <v>78872.086550701642</v>
       </c>
       <c r="T6" s="11">
-        <v>14.612120000000001</v>
+        <v>14.612123172178348</v>
       </c>
       <c r="U6" s="11">
-        <v>5866.833333333333</v>
+        <v>41616.833333333336</v>
       </c>
       <c r="V6" s="11">
-        <v>133338.59999999998</v>
+        <v>160920</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>139205.43333333332</v>
+        <v>202536.83333333334</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>218092.13545333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>281423.53200720716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3126,10 +3134,10 @@
         <v>384090.36767452297</v>
       </c>
       <c r="S7" s="11">
-        <v>146337.9</v>
+        <v>146337.87420813384</v>
       </c>
       <c r="T7" s="11">
-        <v>12.814590000000001</v>
+        <v>12.814589886676153</v>
       </c>
       <c r="U7" s="11">
         <v>12618.666666666666</v>
@@ -3143,10 +3151,10 @@
       </c>
       <c r="X7" s="12">
         <f t="shared" si="1"/>
-        <v>288249.58125666669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>288249.55546468718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3202,10 +3210,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <v>146337.9</v>
+        <v>96261.143172944852</v>
       </c>
       <c r="T8" s="11">
-        <v>18.840229999999998</v>
+        <v>5.1327825331856927</v>
       </c>
       <c r="U8" s="11">
         <v>6426.666666666667</v>
@@ -3219,10 +3227,10 @@
       </c>
       <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>347869.80689666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>297779.34262214473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3278,10 +3286,10 @@
         <v>384090.36767452297</v>
       </c>
       <c r="S9" s="11">
-        <v>146337.9</v>
+        <v>146337.87420813384</v>
       </c>
       <c r="T9" s="11">
-        <v>12.814590000000001</v>
+        <v>12.814589886676153</v>
       </c>
       <c r="U9" s="11">
         <v>12818.666666666666</v>
@@ -3295,10 +3303,10 @@
       </c>
       <c r="X9" s="12">
         <f t="shared" si="1"/>
-        <v>221159.28125666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>221159.25546468716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3353,27 +3361,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="S10" s="11">
-        <v>78872.09</v>
+        <v>78872.086550701642</v>
       </c>
       <c r="T10" s="11">
-        <v>14.612120000000001</v>
+        <v>14.612123172178348</v>
       </c>
       <c r="U10" s="11">
-        <v>5866.833333333333</v>
+        <v>11216.333333333334</v>
       </c>
       <c r="V10" s="11">
         <v>63060</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>68926.833333333328</v>
+        <v>74276.333333333328</v>
       </c>
       <c r="X10" s="12">
         <f t="shared" si="1"/>
-        <v>147813.53545333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>153163.03200720716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3430,10 +3438,10 @@
         <v>387592.626526276</v>
       </c>
       <c r="S11" s="11">
-        <v>114876.4</v>
+        <v>114876.35990534152</v>
       </c>
       <c r="T11" s="11">
-        <v>12.59423</v>
+        <v>12.594228370284263</v>
       </c>
       <c r="U11" s="11">
         <v>4000</v>
@@ -3447,10 +3455,10 @@
       </c>
       <c r="X11" s="12">
         <f t="shared" si="1"/>
-        <v>215033.99423000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>215033.95413371181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3506,10 +3514,10 @@
         <v>368464.72317224898</v>
       </c>
       <c r="S12" s="11">
-        <v>115530.5</v>
+        <v>115530.46906962365</v>
       </c>
       <c r="T12" s="11">
-        <v>12.21167</v>
+        <v>12.211670303203721</v>
       </c>
       <c r="U12" s="11">
         <v>7280</v>
@@ -3523,10 +3531,10 @@
       </c>
       <c r="X12" s="12">
         <f t="shared" si="1"/>
-        <v>178789.21166999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>178789.18073992687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3583,27 +3591,27 @@
         <v>274463.63773783098</v>
       </c>
       <c r="S13" s="11">
-        <v>115530.5</v>
+        <v>115530.46906962365</v>
       </c>
       <c r="T13" s="11">
-        <v>25.08727</v>
+        <v>10.331648594515361</v>
       </c>
       <c r="U13" s="11">
         <v>14160</v>
       </c>
       <c r="V13" s="11">
-        <v>168466.5</v>
+        <v>108466.5</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>182626.5</v>
+        <v>122626.5</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>298182.08727000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>238167.30071821815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3659,27 +3667,27 @@
         <v>387592.626526276</v>
       </c>
       <c r="S14" s="11">
-        <v>114876.4</v>
+        <v>114876.35990534152</v>
       </c>
       <c r="T14" s="11">
-        <v>12.59423</v>
+        <v>12.594228370284263</v>
       </c>
       <c r="U14" s="11">
-        <v>14800</v>
+        <v>27600</v>
       </c>
       <c r="V14" s="11">
         <v>105356</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="0"/>
-        <v>120156</v>
+        <v>132956</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" si="1"/>
-        <v>235044.99423000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>247844.95413371181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3736,10 +3744,10 @@
         <v>233483.63773783101</v>
       </c>
       <c r="S15" s="11">
-        <v>115530.5</v>
+        <v>115530.46906962365</v>
       </c>
       <c r="T15" s="11">
-        <v>12.21167</v>
+        <v>9.5120485945153614</v>
       </c>
       <c r="U15" s="11">
         <v>14160</v>
@@ -3753,7 +3761,7 @@
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>196669.21166999999</v>
+        <v>196666.48111821816</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -3762,7 +3770,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3776,12 +3784,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3812,7 +3820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3841,7 +3849,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,8 +3872,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3892,12 +3899,12 @@
         <v>44248.4220525376</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
+        <v>19212.762708578561</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6670,7 +6677,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -6699,7 +6706,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -6728,7 +6735,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -6757,7 +6764,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -6786,7 +6793,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -6815,7 +6822,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -6844,7 +6851,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -6873,7 +6880,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -6902,7 +6909,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -6931,7 +6938,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -7773,55 +7780,55 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>307967.22911888885</v>
+        <v>257876.76484436693</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
-        <v>216506.84792333335</v>
+        <v>216506.82213135384</v>
       </c>
       <c r="E2">
         <f>CAPEX!$X5</f>
-        <v>145045.86878666666</v>
+        <v>145045.86534054048</v>
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>218092.13545333332</v>
+        <v>281423.53200720716</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
-        <v>288249.58125666669</v>
+        <v>288249.55546468718</v>
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>347869.80689666665</v>
+        <v>297779.34262214473</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
-        <v>221159.28125666664</v>
+        <v>221159.25546468716</v>
       </c>
       <c r="J2">
         <f>CAPEX!$X10</f>
-        <v>147813.53545333334</v>
+        <v>153163.03200720716</v>
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>215033.99423000001</v>
+        <v>215033.95413371181</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
-        <v>178789.21166999999</v>
+        <v>178789.18073992687</v>
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>298182.08727000002</v>
+        <v>238167.30071821815</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
-        <v>235044.99423000001</v>
+        <v>247844.95413371181</v>
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>196669.21166999999</v>
+        <v>196666.48111821816</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -7846,7 +7853,7 @@
       </c>
       <c r="G3">
         <f>IF(G2-C2&gt;0,G2-C2,0)</f>
-        <v>0</v>
+        <v>30372.790620320244</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
@@ -7854,7 +7861,7 @@
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
-        <v>4652.4333333332906</v>
+        <v>4652.4333333333198</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7903,7 +7910,7 @@
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>4652.4333333332906</v>
+        <v>4652.4333333333198</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -7942,7 +7949,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>73046.266666666663</v>
+        <v>136377.66666666669</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7955,7 +7962,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>2767.6666666666861</v>
+        <v>8117.1666666666861</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8137,7 +8144,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>67090.300000000047</v>
+        <v>67090.300000000017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8182,7 +8189,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>70278.599999999977</v>
+        <v>128260.5</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8252,15 +8259,15 @@
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>83148.093040000007</v>
+        <v>23133.346584506333</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>20011</v>
+        <v>32811</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>17880</v>
+        <v>17877.300378291286</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -8302,14 +8309,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>119392.87560000003</v>
+        <v>59378.119978291274</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>17880</v>
+        <v>17877.300378291286</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -8398,7 +8405,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>63137.093040000007</v>
+        <v>-9677.6534154936671</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8447,7 +8454,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>101512.87560000003</v>
+        <v>41500.819599999988</v>
       </c>
       <c r="N15">
         <v>0</v>

--- a/tumlknexpectimax/excel_data/input_data_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiree\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{783B9FD3-2714-4277-962F-575D7F6EDC2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1070" windowWidth="13680" windowHeight="10830" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Revenue" sheetId="3" r:id="rId3"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +534,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -749,7 +755,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="7" builtinId="21"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -765,9 +771,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -794,7 +800,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -914,7 +919,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1030,7 +1035,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1108,45 +1113,45 @@
                   <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6405.333333333333</c:v>
+                  <c:v>6261.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5299.166666666667</c:v>
+                  <c:v>5611.5666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41616.833333333336</c:v>
+                  <c:v>44405.233333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618.666666666666</c:v>
+                  <c:v>10122.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6426.666666666667</c:v>
+                  <c:v>5882.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12818.666666666666</c:v>
+                  <c:v>20010.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11216.333333333334</c:v>
+                  <c:v>12519.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7280</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14160</c:v>
+                  <c:v>15920</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27600</c:v>
+                  <c:v>31120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14160</c:v>
+                  <c:v>16400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1224,45 +1229,45 @@
                   <c:v>158553.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63750.8</c:v>
+                  <c:v>34505.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60860</c:v>
+                  <c:v>62156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160920</c:v>
+                  <c:v>170592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129280.20000000001</c:v>
+                  <c:v>156784.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195086.4</c:v>
+                  <c:v>163819.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63060</c:v>
+                  <c:v>121960</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96145</c:v>
+                  <c:v>109884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55966.5</c:v>
+                  <c:v>56055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108466.5</c:v>
+                  <c:v>198519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105356</c:v>
+                  <c:v>173868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66966.5</c:v>
+                  <c:v>67433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1278,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="88217600"/>
-        <c:axId val="85807616"/>
+        <c:axId val="223895040"/>
+        <c:axId val="222702976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88217600"/>
+        <c:axId val="223895040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,14 +1309,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85807616"/>
+        <c:crossAx val="222702976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85807616"/>
+        <c:axId val="222702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,21 +1346,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88217600"/>
+        <c:crossAx val="223895040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1372,9 +1374,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1401,7 +1403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1521,7 +1522,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1637,7 +1638,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1715,45 +1716,45 @@
                   <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6405.333333333333</c:v>
+                  <c:v>6261.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5299.166666666667</c:v>
+                  <c:v>5611.5666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41616.833333333336</c:v>
+                  <c:v>44405.233333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618.666666666666</c:v>
+                  <c:v>10122.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6426.666666666667</c:v>
+                  <c:v>5882.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12818.666666666666</c:v>
+                  <c:v>20010.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11216.333333333334</c:v>
+                  <c:v>12519.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7280</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14160</c:v>
+                  <c:v>15920</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27600</c:v>
+                  <c:v>31120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14160</c:v>
+                  <c:v>16400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1831,45 +1832,45 @@
                   <c:v>158553.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63750.8</c:v>
+                  <c:v>34505.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60860</c:v>
+                  <c:v>62156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160920</c:v>
+                  <c:v>170592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129280.20000000001</c:v>
+                  <c:v>156784.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195086.4</c:v>
+                  <c:v>163819.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63060</c:v>
+                  <c:v>121960</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96145</c:v>
+                  <c:v>109884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55966.5</c:v>
+                  <c:v>56055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108466.5</c:v>
+                  <c:v>198519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105356</c:v>
+                  <c:v>173868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66966.5</c:v>
+                  <c:v>67433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1885,11 +1886,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="88360448"/>
-        <c:axId val="85809920"/>
+        <c:axId val="226067968"/>
+        <c:axId val="222705280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88360448"/>
+        <c:axId val="226067968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,14 +1912,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85809920"/>
+        <c:crossAx val="222705280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85809920"/>
+        <c:axId val="222705280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,21 +1949,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88360448"/>
+        <c:crossAx val="226067968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1979,37 +1977,73 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Approx. OPEX per year per subscriber</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>Per Subscriber Connected Per Year OPEX Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2022,62 +2056,60 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>OPEX!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Approx OPEX per year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>OASE Percentage OPEX</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OPEX!$A$2:$A$15</c:f>
+              <c:f>OPEX!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ADSL</c:v>
+                  <c:v>FTTC_GPON_25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FTTC_GPON_25</c:v>
+                  <c:v>FTTB_XGPON_50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FTTB_XGPON_50</c:v>
+                  <c:v>FTTB_UDWDM_50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FTTB_UDWDM_50</c:v>
+                  <c:v>FTTH_UDWDM_100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FTTH_UDWDM_100</c:v>
+                  <c:v>FTTH_XGPON_100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FTTH_XGPON_100</c:v>
+                  <c:v>FTTC_GPON_100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FTTC_GPON_100</c:v>
+                  <c:v>FTTB_XGPON_100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FTTB_XGPON_100</c:v>
+                  <c:v>FTTB_UDWDM_100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FTTB_UDWDM_100</c:v>
+                  <c:v>FTTC_Hybridpon_25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FTTC_Hybridpon_25</c:v>
+                  <c:v>FTTB_Hybridpon_50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FTTB_Hybridpon_50</c:v>
+                  <c:v>FTTH_Hybridpon_100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FTTH_Hybridpon_100</c:v>
+                  <c:v>FTTC_Hybridpon_100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>FTTB_Hybridpon_100</c:v>
                 </c:pt>
               </c:strCache>
@@ -2085,58 +2117,172 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OPEX!$B$2:$B$15</c:f>
+              <c:f>OPEX!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>0.58518596297053072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>0.18933088036749157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>0.25854772925314079</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>0.7616905994146701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19212.762708578561</c:v>
+                  <c:v>0.62040166614198877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>0.61283744878072066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>0.33024275697651811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>0.48652861458793223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>0.4298164698700403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>0.258934003396872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>0.7723090700287808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>0.73978844717849501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>0.32597566164931252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91EA-4BE3-8D39-C1A7A45459C7}"/>
+              <c16:uniqueId val="{00000000-0CEE-420E-A443-65F70E35E9A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OASE Base Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>OPEX!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_UDWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_UDWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OPEX!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.58274875704569928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74719496984284595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78430357763805614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60899196497775476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59626735837978484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86498453112013485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89015054117514292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9968552650040271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83142291519321987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61862811609322665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71225808775340016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97920924340919968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7657950621556967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CEE-420E-A443-65F70E35E9A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2149,21 +2295,54 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88362496"/>
-        <c:axId val="159966336"/>
+        <c:axId val="226070016"/>
+        <c:axId val="230252544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88362496"/>
+        <c:axId val="226070016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159966336"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230252544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,51 +2350,733 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159966336"/>
+        <c:axId val="230252544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-GB"/>
                   <a:t>Cost Units</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88362496"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226070016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2238,7 +3099,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,12 +3121,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1674284</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
@@ -2274,7 +3135,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,23 +3162,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +3242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2414,9 +3275,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2449,6 +3327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2624,34 +3519,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="1" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="10" width="19.1796875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="18" width="11.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="22.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="18" width="11.7265625" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +3620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2767,7 +3662,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2846,7 +3741,7 @@
         <v>257876.76484436693</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2910,21 +3805,21 @@
         <v>12.814589886676153</v>
       </c>
       <c r="U4" s="11">
-        <v>6405.333333333333</v>
+        <v>6261.333333333333</v>
       </c>
       <c r="V4" s="11">
-        <v>63750.8</v>
+        <v>34505.599999999999</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" ref="W4:W15" si="0">SUM(U4,V4)</f>
-        <v>70156.133333333331</v>
+        <v>40766.933333333334</v>
       </c>
       <c r="X4" s="12">
         <f t="shared" ref="X4:X14" si="1">S4+T4+U4+V4</f>
-        <v>216506.82213135384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187117.62213135386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2984,21 +3879,21 @@
         <v>14.612123172178348</v>
       </c>
       <c r="U5" s="11">
-        <v>5299.166666666667</v>
+        <v>5611.5666666666666</v>
       </c>
       <c r="V5" s="11">
-        <v>60860</v>
+        <v>62156</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>66159.166666666672</v>
+        <v>67767.566666666666</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" si="1"/>
-        <v>145045.86534054048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>146654.2653405405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3062,21 +3957,21 @@
         <v>14.612123172178348</v>
       </c>
       <c r="U6" s="11">
-        <v>41616.833333333336</v>
+        <v>44405.233333333337</v>
       </c>
       <c r="V6" s="11">
-        <v>160920</v>
+        <v>170592</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>202536.83333333334</v>
+        <v>214997.23333333334</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>281423.53200720716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293883.93200720719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3140,21 +4035,21 @@
         <v>12.814589886676153</v>
       </c>
       <c r="U7" s="11">
-        <v>12618.666666666666</v>
+        <v>10122.666666666666</v>
       </c>
       <c r="V7" s="11">
-        <v>129280.20000000001</v>
+        <v>156784.20000000001</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="0"/>
-        <v>141898.86666666667</v>
+        <v>166906.86666666667</v>
       </c>
       <c r="X7" s="12">
         <f t="shared" si="1"/>
-        <v>288249.55546468718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>313257.55546468718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3216,21 +4111,21 @@
         <v>5.1327825331856927</v>
       </c>
       <c r="U8" s="11">
-        <v>6426.666666666667</v>
+        <v>5882.666666666667</v>
       </c>
       <c r="V8" s="11">
-        <v>195086.4</v>
+        <v>163819.20000000001</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="0"/>
-        <v>201513.06666666665</v>
+        <v>169701.86666666667</v>
       </c>
       <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>297779.34262214473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265968.14262214472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3292,21 +4187,21 @@
         <v>12.814589886676153</v>
       </c>
       <c r="U9" s="11">
-        <v>12818.666666666666</v>
+        <v>20010.666666666668</v>
       </c>
       <c r="V9" s="11">
         <v>61989.9</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="0"/>
-        <v>74808.566666666666</v>
+        <v>82000.566666666666</v>
       </c>
       <c r="X9" s="12">
         <f t="shared" si="1"/>
-        <v>221159.25546468716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228351.25546468716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3367,21 +4262,21 @@
         <v>14.612123172178348</v>
       </c>
       <c r="U10" s="11">
-        <v>11216.333333333334</v>
+        <v>12519.333333333334</v>
       </c>
       <c r="V10" s="11">
-        <v>63060</v>
+        <v>121960</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>74276.333333333328</v>
+        <v>134479.33333333334</v>
       </c>
       <c r="X10" s="12">
         <f t="shared" si="1"/>
-        <v>153163.03200720716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213366.03200720716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3444,21 +4339,21 @@
         <v>12.594228370284263</v>
       </c>
       <c r="U11" s="11">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="V11" s="11">
-        <v>96145</v>
+        <v>109884</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="0"/>
-        <v>100145</v>
+        <v>114284</v>
       </c>
       <c r="X11" s="12">
         <f t="shared" si="1"/>
-        <v>215033.95413371181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229172.95413371181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3520,21 +4415,21 @@
         <v>12.211670303203721</v>
       </c>
       <c r="U12" s="11">
-        <v>7280</v>
+        <v>8160</v>
       </c>
       <c r="V12" s="11">
-        <v>55966.5</v>
+        <v>56055</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="0"/>
-        <v>63246.5</v>
+        <v>64215</v>
       </c>
       <c r="X12" s="12">
         <f t="shared" si="1"/>
-        <v>178789.18073992687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179757.68073992687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3597,21 +4492,21 @@
         <v>10.331648594515361</v>
       </c>
       <c r="U13" s="11">
-        <v>14160</v>
+        <v>15920</v>
       </c>
       <c r="V13" s="11">
-        <v>108466.5</v>
+        <v>198519</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>122626.5</v>
+        <v>214439</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>238167.30071821815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>329979.80071821815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3673,21 +4568,21 @@
         <v>12.594228370284263</v>
       </c>
       <c r="U14" s="11">
-        <v>27600</v>
+        <v>31120</v>
       </c>
       <c r="V14" s="11">
-        <v>105356</v>
+        <v>173868</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="0"/>
-        <v>132956</v>
+        <v>204988</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" si="1"/>
-        <v>247844.95413371181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>319876.95413371181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3750,27 +4645,27 @@
         <v>9.5120485945153614</v>
       </c>
       <c r="U15" s="11">
-        <v>14160</v>
+        <v>16400</v>
       </c>
       <c r="V15" s="11">
-        <v>66966.5</v>
+        <v>67433</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="0"/>
-        <v>81126.5</v>
+        <v>83833</v>
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>196666.48111821816</v>
-      </c>
-    </row>
-    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>199372.98111821816</v>
+      </c>
+    </row>
+    <row r="27" spans="17:17" x14ac:dyDescent="0.35">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3784,12 +4679,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.35">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3809,7 +4704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.35">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3820,7 +4715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.35">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3845,21 +4740,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -3867,116 +4762,285 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.58274875704569928</v>
+      </c>
+      <c r="C3">
+        <f>(0.1*(CAPEX!W3)+0.01*(CAPEX!S3+CAPEX!T3))/29262</f>
+        <v>0.58518596297053072</v>
+      </c>
+      <c r="I3" s="12">
+        <v>3.4104788257342502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.74719496984284595</v>
+      </c>
+      <c r="C4">
+        <f>(0.1*(CAPEX!W4)+0.01*(CAPEX!S4+CAPEX!T4))/29262</f>
+        <v>0.18933088036749157</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4.3728838415082709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.78430357763805614</v>
+      </c>
+      <c r="C5">
+        <f>(0.1*(CAPEX!W5)+0.01*(CAPEX!S5+CAPEX!T5))/29262</f>
+        <v>0.25854772925314079</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4.590058257768959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>19212.762708578561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.60899196497775476</v>
+      </c>
+      <c r="C6">
+        <f>(0.1*(CAPEX!W6)+0.01*(CAPEX!S6+CAPEX!T6))/29262</f>
+        <v>0.7616905994146701</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3.5645668399812402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.59626735837978484</v>
+      </c>
+      <c r="C7">
+        <f>(0.1*(CAPEX!W7)+0.01*(CAPEX!S7+CAPEX!T7))/29262</f>
+        <v>0.62040166614198877</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3.4895950881818525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.86498453112013485</v>
+      </c>
+      <c r="C8">
+        <f>(0.1*(CAPEX!W8)+0.01*(CAPEX!S8+CAPEX!T8))/29262</f>
+        <v>0.61283744878072066</v>
+      </c>
+      <c r="I8" s="12">
+        <v>5.0622354699274767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400003029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89015054117514292</v>
+      </c>
+      <c r="C9">
+        <f>(0.1*(CAPEX!W9)+0.01*(CAPEX!S9+CAPEX!T9))/29262</f>
+        <v>0.33024275697651811</v>
+      </c>
+      <c r="I9" s="12">
+        <v>5.2097123546059274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169209609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9968552650040271</v>
+      </c>
+      <c r="C10">
+        <f>(0.1*(CAPEX!W10)+0.01*(CAPEX!S10+CAPEX!T10))/29262</f>
+        <v>0.48652861458793223</v>
+      </c>
+      <c r="I10" s="12">
+        <v>5.8339957529095674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867713520049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.83142291519321987</v>
+      </c>
+      <c r="C11">
+        <f>(0.1*(CAPEX!W11)+0.01*(CAPEX!S11+CAPEX!T11))/29262</f>
+        <v>0.4298164698700403</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4.8658194688768006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.61862811609322665</v>
+      </c>
+      <c r="C12">
+        <f>(0.1*(CAPEX!W12)+0.01*(CAPEX!S12+CAPEX!T12))/29262</f>
+        <v>0.258934003396872</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.6204591866240001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.71225808775340016</v>
+      </c>
+      <c r="C13">
+        <f>(0.1*(CAPEX!W13)+0.01*(CAPEX!S13+CAPEX!T13))/29262</f>
+        <v>0.7723090700287808</v>
+      </c>
+      <c r="I13" s="12">
+        <v>4.1684192327679996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.97920924340919968</v>
+      </c>
+      <c r="C14">
+        <f>(0.1*(CAPEX!W14)+0.01*(CAPEX!S14+CAPEX!T14))/29262</f>
+        <v>0.73978844717849501</v>
+      </c>
+      <c r="I14" s="12">
+        <v>5.7307241761280014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920599649</v>
+        <v>0.7657950621556967</v>
+      </c>
+      <c r="C15">
+        <f>(0.1*(CAPEX!W15)+0.01*(CAPEX!S15+CAPEX!T15))/29262</f>
+        <v>0.32597566164931252</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4.4817390217599993</v>
+      </c>
+    </row>
+    <row r="25" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L28" s="12">
+        <v>17949.504877206222</v>
+      </c>
+    </row>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L29" s="12">
+        <v>22473.751741271892</v>
+      </c>
+    </row>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L30" s="12">
+        <v>23647.584867846392</v>
+      </c>
+    </row>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L31" s="12">
+        <v>33104.01513612851</v>
+      </c>
+    </row>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L32" s="12">
+        <v>17471.624241830272</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="12">
+        <v>26208.288098172354</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="12">
+        <v>26656.71640070741</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="12">
+        <v>29867.272343549441</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="12">
+        <v>25179.943488463272</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="12">
+        <v>25460.695933119998</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="12">
+        <v>21667.055427396983</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="12">
+        <v>28976.942415390124</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="12">
+        <v>22704.519468951654</v>
       </c>
     </row>
   </sheetData>
@@ -3986,29 +5050,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="34" max="34" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="34" max="34" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4088,7 +5152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -4136,31 +5200,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-10855.814930199653</v>
+        <v>1283.2877419122467</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-10855.814930199653</v>
+        <v>1283.2877419122467</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-10855.814930199653</v>
+        <v>1283.2877419122467</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-10999.814930199653</v>
+        <v>1139.2877419122467</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-10999.814930199653</v>
+        <v>1139.2877419122467</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-10999.814930199653</v>
+        <v>1139.2877419122467</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4168,30 +5232,30 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-10855.814930199653</v>
+        <v>1283.2877419122467</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-10855.814930199653</v>
+        <v>1283.2877419122467</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-10855.814930199653</v>
+        <v>1283.2877419122467</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-10999.814930199653</v>
+        <v>1139.2877419122467</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-10999.814930199653</v>
+        <v>1139.2877419122467</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-10999.814930199653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1139.2877419122467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -4238,31 +5302,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-10423.814930199653</v>
+        <v>1715.2877419122467</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-10339.814930199653</v>
+        <v>1799.2877419122467</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-9703.8149301996527</v>
+        <v>2435.2877419122465</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-10603.814930199653</v>
+        <v>1535.2877419122467</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-10531.814930199653</v>
+        <v>1607.2877419122467</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-9979.8149301996527</v>
+        <v>2159.2877419122465</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4270,30 +5334,30 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-9476.1953910905922</v>
+        <v>1559.352492647497</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-9399.8317547269562</v>
+        <v>1635.7161290111333</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-8821.6499365451382</v>
+        <v>2213.8979471929511</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-9639.8317547269562</v>
+        <v>1395.7161290111333</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-9574.3772092724121</v>
+        <v>1461.1706744656788</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-9072.5590274542301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1962.9888562838603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -4349,31 +5413,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-9787.8149301996527</v>
+        <v>2351.2877419122465</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-9667.8149301996527</v>
+        <v>2471.2877419122465</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-7495.8149301996527</v>
+        <v>4643.2877419122469</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-10051.814930199653</v>
+        <v>2087.2877419122465</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-9943.8149301996527</v>
+        <v>2195.2877419122465</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-7987.8149301996527</v>
+        <v>4151.2877419122469</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -4381,30 +5445,30 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-8089.1032480988861</v>
+        <v>1943.2130098448315</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-7989.9296943798772</v>
+        <v>2042.3865635638399</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-6194.8883720658278</v>
+        <v>3837.4278858778898</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-8307.2850662807032</v>
+        <v>1725.0311916630135</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-8218.0288679335972</v>
+        <v>1814.2873900101208</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-6601.4999423137615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>3430.8163156299556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -4461,31 +5525,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-8959.8149301996527</v>
+        <v>3179.2877419122465</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-8623.8149301996527</v>
+        <v>3515.2877419122465</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-3103.8149301996527</v>
+        <v>9035.2877419122469</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-9295.8149301996527</v>
+        <v>2843.2877419122465</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-8983.8149301996527</v>
+        <v>3155.2877419122465</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-4027.8149301996527</v>
+        <v>8111.2877419122469</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -4493,30 +5557,30 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-6731.6415703979337</v>
+        <v>2388.6459368236256</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-6479.1997972950039</v>
+        <v>2641.0877099265554</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-2331.9420963182961</v>
+        <v>6788.3454109032637</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-6984.0833435008644</v>
+        <v>2136.2041637206953</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-6749.6731256195717</v>
+        <v>2370.6143816019876</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-3026.1569723513535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>6094.1305348702062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -4573,31 +5637,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-7795.8149301996527</v>
+        <v>4343.2877419122469</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-7183.8149301996527</v>
+        <v>4955.2877419122469</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>5392.1850698003473</v>
+        <v>17531.287741912245</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-8263.8149301996527</v>
+        <v>3875.2877419122465</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-7699.8149301996527</v>
+        <v>4439.2877419122469</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>3628.1850698003473</v>
+        <v>15767.287741912247</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -4605,30 +5669,30 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-5324.6464928622709</v>
+        <v>2966.5239682482384</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-4906.6422581788474</v>
+        <v>3384.5282029316618</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>3682.9349564922791</v>
+        <v>11974.105417602786</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-5644.2967899731239</v>
+        <v>2646.8736711373849</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-5259.0772011472245</v>
+        <v>3032.0932599632852</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>2478.0992212282949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10769.269682338803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -4685,31 +5749,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-6211.8149301996527</v>
+        <v>5927.2877419122469</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-5143.8149301996527</v>
+        <v>6995.2877419122469</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>21688.185069800347</v>
+        <v>33827.287741912245</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-6811.8149301996527</v>
+        <v>5327.2877419122469</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-5863.8149301996527</v>
+        <v>6275.2877419122469</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>18280.185069800347</v>
+        <v>30419.287741912245</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -4717,30 +5781,30 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-3857.0483450581805</v>
+        <v>3680.3793468604631</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-3193.9043720310028</v>
+        <v>4343.5233198876404</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>13466.656568292243</v>
+        <v>21004.084260210886</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-4229.6011388936731</v>
+        <v>3307.8265530249701</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-3640.9677246335946</v>
+        <v>3896.4599672850491</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>11350.556699306642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>18887.984391225284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -4797,31 +5861,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-4027.8149301996527</v>
+        <v>8111.2877419122469</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-2227.8149301996527</v>
+        <v>9911.2877419122469</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>51592.185069800347</v>
+        <v>63731.287741912245</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-4879.8149301996527</v>
+        <v>7259.2877419122469</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-3223.8149301996527</v>
+        <v>8915.2877419122469</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>45196.185069800347</v>
+        <v>57335.287741912245</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -4829,30 +5893,30 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-2273.5965231790783</v>
+        <v>4578.6104694742344</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-1257.5434490822793</v>
+        <v>5594.6635435710332</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>29122.443466412009</v>
+        <v>35974.65045906532</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-2754.5283115848965</v>
+        <v>4097.6786810684162</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-1819.7594834158415</v>
+        <v>5032.4475092374714</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>25512.068209788053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>32364.275202441364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -4908,31 +5972,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-1051.8149301996527</v>
+        <v>11087.287741912247</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>1876.1850698003473</v>
+        <v>14015.287741912247</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>102400.18506980035</v>
+        <v>114539.28774191225</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-2179.8149301996527</v>
+        <v>9959.2877419122469</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>436.18506980034726</v>
+        <v>12575.287741912247</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>90928.185069800355</v>
+        <v>103067.28774191225</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -4940,30 +6004,30 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-539.74737030821564</v>
+        <v>5689.531713922067</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>962.77959987129282</v>
+        <v>7192.0586841015756</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>52547.48627689483</v>
+        <v>58776.765361125115</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-1118.5897276724525</v>
+        <v>5110.6893565578303</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>223.83190961907556</v>
+        <v>6453.1109938493582</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>46660.536344552165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>52889.815428782451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -5019,31 +6083,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>3004.1850698003473</v>
+        <v>15143.287741912247</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>7636.1850698003473</v>
+        <v>19775.287741912245</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>176092.18506980035</v>
+        <v>188231.28774191224</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>1468.1850698003473</v>
+        <v>13607.287741912247</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>5620.1850698003473</v>
+        <v>17759.287741912245</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>157240.18506980035</v>
+        <v>169379.28774191224</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -5051,30 +6115,30 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>1401.4745065777543</v>
+        <v>7064.4554922416482</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>3562.336691709238</v>
+        <v>9225.3176773731302</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>82148.30393232005</v>
+        <v>87811.28491798394</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>684.9191705756042</v>
+        <v>6347.9001562394978</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>2621.8578132064163</v>
+        <v>8284.8387988703089</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>73353.70680060616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>79016.687786270049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -5130,31 +6194,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>8476.1850698003473</v>
+        <v>20615.287741912245</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>15604.185069800347</v>
+        <v>27743.287741912245</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>254836.18506980035</v>
+        <v>266975.28774191224</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>6388.1850698003473</v>
+        <v>18527.287741912245</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>12796.185069800347</v>
+        <v>24935.287741912245</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>228124.18506980035</v>
+        <v>240263.28774191224</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -5162,30 +6226,30 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>3594.7299009867402</v>
+        <v>8742.8944334084608</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>6617.6977247458108</v>
+        <v>11765.862257167531</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>108075.41916323206</v>
+        <v>113223.58369565378</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>2709.2140738249918</v>
+        <v>7857.3786062467125</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>5426.8316123558734</v>
+        <v>10574.996144777595</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>96746.923581266252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>101895.08811368796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -5242,31 +6306,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>15820.185069800347</v>
+        <v>27959.287741912245</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>26440.185069800347</v>
+        <v>38579.287741912245</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>302116.18506980035</v>
+        <v>314255.28774191224</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>12988.185069800347</v>
+        <v>25127.287741912245</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>22564.185069800347</v>
+        <v>34703.287741912245</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>270676.18506980035</v>
+        <v>282815.28774191224</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -5274,30 +6338,30 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>6099.3661911947884</v>
+        <v>10779.515766123624</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>10193.835924936413</v>
+        <v>14873.985499865248</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>116478.86778171193</v>
+        <v>121159.01735664076</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>5007.5075955303546</v>
+        <v>9687.6571704591915</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>8699.4701351075473</v>
+        <v>13379.619710036384</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>104357.38676204746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>109037.53633697629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -5353,31 +6417,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>25468.185069800347</v>
+        <v>37607.287741912245</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>41032.185069800347</v>
+        <v>53171.287741912245</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>312256.18506980035</v>
+        <v>324395.28774191224</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>21676.185069800347</v>
+        <v>33815.287741912245</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>35680.185069800347</v>
+        <v>47819.287741912245</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>279808.18506980035</v>
+        <v>291947.28774191224</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -5385,30 +6449,30 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>8926.443497828097</v>
+        <v>13181.124929581583</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>14381.530549356485</v>
+        <v>18636.211981109973</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>109443.8879422976</v>
+        <v>113698.56937405109</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>7597.3706309946574</v>
+        <v>11852.052062748144</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>12505.687199332073</v>
+        <v>16760.368631085559</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>98071.06189192539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>102325.74332367888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -5464,31 +6528,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>38092.185069800347</v>
+        <v>50231.287741912245</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>60076.185069800347</v>
+        <v>72215.287741912252</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>312712.18506980035</v>
+        <v>324851.28774191224</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>33052.185069800347</v>
+        <v>45191.287741912245</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>52840.185069800347</v>
+        <v>64979.287741912245</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>280192.18506980035</v>
+        <v>292331.28774191224</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -5496,30 +6560,30 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>12137.34407716472</v>
+        <v>16005.236287849708</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>19142.1239737092</v>
+        <v>23010.01618439419</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>99639.739236782843</v>
+        <v>103507.63144746782</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>10531.444755904524</v>
+        <v>14399.336966589512</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>16836.511376757058</v>
+        <v>20704.403587442048</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>89277.865044842052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>93145.757255527031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -5575,31 +6639,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>54172.185069800347</v>
+        <v>66311.287741912252</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>84196.185069800355</v>
+        <v>96335.287741912252</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>312796.18506980035</v>
+        <v>324935.28774191224</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>47536.185069800347</v>
+        <v>59675.287741912245</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>74536.185069800355</v>
+        <v>86675.287741912252</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>280276.18506980035</v>
+        <v>292415.28774191224</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -5607,30 +6671,30 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>15691.752387224777</v>
+        <v>19208.01803330204</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>24388.635724439093</v>
+        <v>27904.901370516356</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>90605.912932245919</v>
+        <v>94122.178578323175</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>13769.539563292117</v>
+        <v>17285.80520936938</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>21590.477816182691</v>
+        <v>25106.74346225995</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>81186.02730320883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>84702.2929492861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -5686,31 +6750,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>74164.185069800355</v>
+        <v>86303.287741912252</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>113224.18506980035</v>
+        <v>125363.28774191225</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>312832.18506980035</v>
+        <v>324971.28774191224</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>65500.185069800347</v>
+        <v>77639.287741912252</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>100648.18506980035</v>
+        <v>112787.28774191225</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>280300.18506980035</v>
+        <v>292439.28774191224</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -5718,30 +6782,30 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>19529.74787901876</v>
+        <v>22726.353011816271</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>29815.466672214232</v>
+        <v>33012.071805011743</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>82378.491681742191</v>
+        <v>85575.096814539706</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>17248.245891710882</v>
+        <v>20444.851024508393</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>26503.812818060975</v>
+        <v>29700.417950858486</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>73811.799316656805</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>77008.40444945432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -5797,31 +6861,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>98200.185069800355</v>
+        <v>110339.28774191225</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>146248.18506980035</v>
+        <v>158387.28774191224</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>312856.18506980035</v>
+        <v>324995.28774191224</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>87136.185069800355</v>
+        <v>99275.287741912252</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>130408.18506980035</v>
+        <v>142547.28774191224</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>280324.18506980035</v>
+        <v>292463.28774191224</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -5829,30 +6893,30 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>23508.343552290629</v>
+        <v>26414.348218470182</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>35010.652740380188</v>
+        <v>37916.657406559745</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>74895.283301677759</v>
+        <v>77801.287967857323</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>20859.709918070203</v>
+        <v>23765.714584249759</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>31218.682678372643</v>
+        <v>34124.687344552192</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>67107.381151600144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>70013.385817779694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -5908,31 +6972,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>125848.18506980035</v>
+        <v>137987.28774191224</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>181108.18506980035</v>
+        <v>193247.28774191224</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>312868.18506980035</v>
+        <v>325007.28774191224</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>112024.18506980035</v>
+        <v>124163.28774191225</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>161776.18506980035</v>
+        <v>173915.28774191224</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>280336.18506980035</v>
+        <v>292475.28774191224</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -5940,30 +7004,30 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>27388.231757499325</v>
+        <v>30030.054181298918</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>39414.417801262935</v>
+        <v>42056.240225062524</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>68089.232732972901</v>
+        <v>70731.055156772491</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>24379.726584336309</v>
+        <v>27021.549008135906</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>35207.211348167781</v>
+        <v>37849.03377196737</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>61009.321687447788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>63651.144111247384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -6010,31 +7074,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>155932.18506980035</v>
+        <v>168071.28774191224</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>214708.18506980035</v>
+        <v>226847.28774191224</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>312880.18506980035</v>
+        <v>325019.28774191224</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>139120.18506980035</v>
+        <v>151259.28774191224</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>191980.18506980035</v>
+        <v>204119.28774191224</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>280348.18506980035</v>
+        <v>292487.28774191224</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -6042,30 +7106,30 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>30850.351526009228</v>
+        <v>33252.008274917949</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>42478.869785283568</v>
+        <v>44880.526534192286</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>61901.676620547623</v>
+        <v>64303.333369456341</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>27524.186952460161</v>
+        <v>29925.843701368878</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>37982.256150521294</v>
+        <v>40383.912899430019</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>55465.393851888432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>57867.050600797149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -6112,31 +7176,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>186688.18506980035</v>
+        <v>198827.28774191224</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>244084.18506980035</v>
+        <v>256223.28774191224</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>312880.18506980035</v>
+        <v>325019.28774191224</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>166792.18506980035</v>
+        <v>178931.28774191224</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>218428.18506980035</v>
+        <v>230567.28774191224</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>280348.18506980035</v>
+        <v>292487.28774191224</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -6144,30 +7208,30 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>33577.511057001619</v>
+        <v>35760.83537419136</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>43900.686162630846</v>
+        <v>46084.010479820587</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>56274.251473225107</v>
+        <v>58457.575790414849</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>29999.040572967901</v>
+        <v>32182.364890157645</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>39286.229048720059</v>
+        <v>41469.5533659098</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>50423.085319898564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>52606.409637088313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -6214,31 +7278,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>215944.18506980035</v>
+        <v>228083.28774191224</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>267340.18506980035</v>
+        <v>279479.28774191224</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>312880.18506980035</v>
+        <v>325019.28774191224</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>193120.18506980035</v>
+        <v>205259.28774191224</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>239392.18506980035</v>
+        <v>251531.28774191224</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>280348.18506980035</v>
+        <v>292487.28774191224</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -6246,30 +7310,30 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>35308.599831441417</v>
+        <v>37293.440119795734</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>43712.256527963182</v>
+        <v>45697.096816317498</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>51158.410430204625</v>
+        <v>53143.250718558942</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>31576.693448816062</v>
+        <v>33561.533737170379</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>39142.535200342543</v>
+        <v>41127.37548869686</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>45839.16847263505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>47824.00876098936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -6316,31 +7380,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$13</f>
-        <v>12139.814930199653</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>241732.18506980035</v>
+        <v>253871.28774191224</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>284140.18506980035</v>
+        <v>296279.28774191224</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>312880.18506980035</v>
+        <v>325019.28774191224</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>216340.18506980035</v>
+        <v>228479.28774191224</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>254488.18506980035</v>
+        <v>266627.28774191224</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>280348.18506980035</v>
+        <v>292487.28774191224</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -6348,36 +7412,36 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>35931.94899897882</v>
+        <v>37736.349261119103</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>42235.627976226693</v>
+        <v>44040.028238366976</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>46507.645845640582</v>
+        <v>48312.046107780865</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>32157.589996189767</v>
+        <v>33961.99025833005</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>37828.04711805479</v>
+        <v>39632.447380195073</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>41671.97133875914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>43476.371600899431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="AE23" s="14">
         <f>SUM(AE2:AE22)</f>
-        <v>1118212.3490075637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1233698.4757793916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -6388,7 +7452,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -6396,7 +7460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -6419,7 +7483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -6454,7 +7518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -6489,7 +7553,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -6518,7 +7582,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -6547,7 +7611,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -6576,7 +7640,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -6605,7 +7669,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -6648,7 +7712,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -6677,7 +7741,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -6706,7 +7770,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -6735,7 +7799,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -6764,7 +7828,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -6793,7 +7857,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -6822,7 +7886,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -6851,7 +7915,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -6880,7 +7944,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -6909,7 +7973,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -6938,7 +8002,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -6967,7 +8031,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -6996,7 +8060,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -7025,7 +8089,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -7054,12 +8118,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -7082,7 +8146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -7111,7 +8175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -7140,7 +8204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -7169,7 +8233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -7198,7 +8262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -7227,7 +8291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -7256,7 +8320,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -7285,7 +8349,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -7314,7 +8378,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -7343,7 +8407,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -7372,7 +8436,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -7401,7 +8465,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -7430,7 +8494,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -7459,7 +8523,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -7488,7 +8552,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -7517,7 +8581,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -7546,7 +8610,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -7575,7 +8639,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -7604,7 +8668,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -7633,7 +8697,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -7662,7 +8726,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -7698,33 +8762,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -7771,7 +8835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7784,54 +8848,54 @@
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
-        <v>216506.82213135384</v>
+        <v>187117.62213135386</v>
       </c>
       <c r="E2">
         <f>CAPEX!$X5</f>
-        <v>145045.86534054048</v>
+        <v>146654.2653405405</v>
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>281423.53200720716</v>
+        <v>293883.93200720719</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
-        <v>288249.55546468718</v>
+        <v>313257.55546468718</v>
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>297779.34262214473</v>
+        <v>265968.14262214472</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
-        <v>221159.25546468716</v>
+        <v>228351.25546468716</v>
       </c>
       <c r="J2">
         <f>CAPEX!$X10</f>
-        <v>153163.03200720716</v>
+        <v>213366.03200720716</v>
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>215033.95413371181</v>
+        <v>229172.95413371181</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
-        <v>178789.18073992687</v>
+        <v>179757.68073992687</v>
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>238167.30071821815</v>
+        <v>329979.80071821815</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
-        <v>247844.95413371181</v>
+        <v>319876.95413371181</v>
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>196666.48111821816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>199372.98111821816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -7853,15 +8917,15 @@
       </c>
       <c r="G3">
         <f>IF(G2-C2&gt;0,G2-C2,0)</f>
-        <v>30372.790620320244</v>
+        <v>55380.790620320244</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>39902.577777777798</v>
+        <v>8091.3777777777868</v>
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
-        <v>4652.4333333333198</v>
+        <v>41233.633333333302</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7882,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -7903,14 +8967,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>71742.733333333337</v>
+        <v>126139.93333333332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>4652.4333333333198</v>
+        <v>41233.633333333302</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -7931,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7949,7 +9013,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>136377.66666666669</v>
+        <v>147229.66666666669</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7962,7 +9026,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>8117.1666666666861</v>
+        <v>66711.766666666663</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7980,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -8027,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -8074,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -8095,7 +9159,7 @@
       </c>
       <c r="G8">
         <f>IF(G2-H2&gt;0,G2-H2,0)</f>
-        <v>0</v>
+        <v>47289.412842542457</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8123,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -8144,7 +9208,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>67090.300000000017</v>
+        <v>84906.300000000017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8171,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -8189,7 +9253,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>128260.5</v>
+        <v>80517.900000000023</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8219,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -8259,18 +9323,18 @@
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>23133.346584506333</v>
+        <v>100806.84658450633</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>32811</v>
+        <v>90704</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>17877.300378291286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19615.300378291286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -8309,17 +9373,17 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>59378.119978291274</v>
+        <v>150222.11997829127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>17877.300378291286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19615.300378291286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -8366,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -8405,7 +9469,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>-9677.6534154936671</v>
+        <v>10102.846584506333</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8415,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -8454,7 +9518,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>41500.819599999988</v>
+        <v>130606.81959999999</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -8463,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
